--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84152BA6-E463-4B12-97DF-D755296AFC6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749B563-F828-4483-9B4C-F57AD8DCEE18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2343,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="489">
   <si>
     <t>SearchID</t>
   </si>
@@ -3263,9 +3264,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>satellite tracking</t>
-  </si>
-  <si>
     <t>The fisheries activity impact significantly on the behaviour with larger site fidelities in the absence of trawlers</t>
   </si>
   <si>
@@ -3296,9 +3294,6 @@
     <t>Aggregation/production artificial reefs (ARs) were first deployed in the Balearic Islands in the early 1990s. Early studies concluded that these ARs concentrated medium- and large-sized commercial fish, a fact that could lead to a risk of overfishing in the area. A decade after their deployment, the same ARs were re-examined using experimental fishing and visual censuses. Results from our study demonstrated that the Balearic ARs have not increased the risk of overfishing because fishing effort on them is moderate, trammel net efficiency on ARs is low, there are high immigration rates to the ARs, and there are natural areas with a medium-high seabed relief that hold reserve stocks that are larger than those found on the ARs. Likewise, we found that the overall condition of the ecosystem is more important for the characterization of the composition and yield of AR catches than are the eutrophic-oligotrophic conditions of the surrounding water masses. We note that the function of the aggregation/production ARs is only analogous to that of marine protected areas (MPAs) and that ARs therefore should always be managed to ensure the correct use of marine resources. Combining both intervention measures (ARs and MPAs) in the environment may synergistically reinforce their respective effects. © 2009 Rosenstiel School of Marine and Atmospheric Science of the University of Miami.</t>
   </si>
   <si>
-    <t>visual census</t>
-  </si>
-  <si>
     <t>MDS (Multidimensional Scaling) _ SIMPER _ average</t>
   </si>
   <si>
@@ -3804,9 +3799,6 @@
   </si>
   <si>
     <t>Fishing discard</t>
-  </si>
-  <si>
-    <t>Stomach contents</t>
   </si>
   <si>
     <t>feeding activity</t>
@@ -4290,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,7 +4555,7 @@
         <v>251</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4697,7 +4689,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4828,7 +4820,7 @@
         <v>269</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4965,7 +4957,7 @@
         <v>281</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -5105,7 +5097,7 @@
         <v>281</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -5168,7 +5160,7 @@
         <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -5239,7 +5231,7 @@
         <v>281</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M8" t="s">
         <v>282</v>
@@ -5370,7 +5362,7 @@
         <v>281</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M9" t="s">
         <v>282</v>
@@ -5501,7 +5493,7 @@
         <v>302</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M10" t="s">
         <v>303</v>
@@ -5534,13 +5526,10 @@
         <v>47</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="Z10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5551,8 +5540,8 @@
       <c r="AC10">
         <v>3</v>
       </c>
-      <c r="AF10" t="s">
-        <v>305</v>
+      <c r="AF10">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG10" t="s">
         <v>107</v>
@@ -5564,13 +5553,13 @@
         <v>150</v>
       </c>
       <c r="AL10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AM10" t="s">
         <v>159</v>
       </c>
       <c r="AO10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
@@ -5585,7 +5574,7 @@
         <v>284</v>
       </c>
       <c r="AU10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AV10" t="s">
         <v>212</v>
@@ -5594,48 +5583,48 @@
         <v>207</v>
       </c>
       <c r="AX10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E11">
         <v>2009</v>
       </c>
       <c r="F11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
         <v>312</v>
-      </c>
-      <c r="G11" t="s">
-        <v>313</v>
       </c>
       <c r="H11" t="s">
         <v>248</v>
       </c>
       <c r="I11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" t="s">
         <v>314</v>
-      </c>
-      <c r="J11" t="s">
-        <v>315</v>
       </c>
       <c r="K11" t="s">
         <v>252</v>
       </c>
       <c r="L11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -5668,7 +5657,7 @@
         <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5701,7 +5690,7 @@
         <v>160</v>
       </c>
       <c r="AO11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5725,48 +5714,48 @@
         <v>210</v>
       </c>
       <c r="AX11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E12">
         <v>2009</v>
       </c>
       <c r="F12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" t="s">
         <v>312</v>
-      </c>
-      <c r="G12" t="s">
-        <v>313</v>
       </c>
       <c r="H12" t="s">
         <v>248</v>
       </c>
       <c r="I12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" t="s">
         <v>314</v>
-      </c>
-      <c r="J12" t="s">
-        <v>315</v>
       </c>
       <c r="K12" t="s">
         <v>252</v>
       </c>
       <c r="L12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5796,13 +5785,10 @@
         <v>55</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5835,7 +5821,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5859,48 +5845,48 @@
         <v>210</v>
       </c>
       <c r="AX12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E13">
         <v>2009</v>
       </c>
       <c r="F13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" t="s">
         <v>312</v>
-      </c>
-      <c r="G13" t="s">
-        <v>313</v>
       </c>
       <c r="H13" t="s">
         <v>248</v>
       </c>
       <c r="I13" t="s">
+        <v>313</v>
+      </c>
+      <c r="J13" t="s">
         <v>314</v>
-      </c>
-      <c r="J13" t="s">
-        <v>315</v>
       </c>
       <c r="K13" t="s">
         <v>252</v>
       </c>
       <c r="L13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5933,7 +5919,7 @@
         <v>69</v>
       </c>
       <c r="Z13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5966,7 +5952,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -5990,48 +5976,48 @@
         <v>210</v>
       </c>
       <c r="AX13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" t="s">
         <v>312</v>
-      </c>
-      <c r="G14" t="s">
-        <v>313</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
       </c>
       <c r="I14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" t="s">
         <v>314</v>
-      </c>
-      <c r="J14" t="s">
-        <v>315</v>
       </c>
       <c r="K14" t="s">
         <v>252</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N14" t="s">
         <v>254</v>
@@ -6061,13 +6047,10 @@
         <v>55</v>
       </c>
       <c r="X14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6100,7 +6083,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6124,21 +6107,21 @@
         <v>210</v>
       </c>
       <c r="AX14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E15">
         <v>2009</v>
@@ -6147,25 +6130,25 @@
         <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H15" t="s">
         <v>299</v>
       </c>
       <c r="I15" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" t="s">
         <v>326</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="M15" t="s">
         <v>327</v>
-      </c>
-      <c r="K15" t="s">
-        <v>328</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="M15" t="s">
-        <v>329</v>
       </c>
       <c r="N15" t="s">
         <v>254</v>
@@ -6198,7 +6181,7 @@
         <v>69</v>
       </c>
       <c r="Z15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6231,10 +6214,10 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AP15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AQ15" t="s">
         <v>165</v>
@@ -6258,30 +6241,30 @@
         <v>207</v>
       </c>
       <c r="AX15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E16">
         <v>2009</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H16" t="s">
         <v>248</v>
@@ -6290,16 +6273,16 @@
         <v>248</v>
       </c>
       <c r="J16" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" t="s">
         <v>338</v>
-      </c>
-      <c r="K16" t="s">
-        <v>339</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M16" t="s">
-        <v>340</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -6332,7 +6315,7 @@
         <v>215</v>
       </c>
       <c r="Z16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6365,10 +6348,10 @@
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AP16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6383,7 +6366,7 @@
         <v>284</v>
       </c>
       <c r="AU16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AV16" t="s">
         <v>206</v>
@@ -6392,21 +6375,21 @@
         <v>208</v>
       </c>
       <c r="AX16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E17">
         <v>2009</v>
@@ -6415,25 +6398,25 @@
         <v>246</v>
       </c>
       <c r="G17" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" t="s">
+        <v>353</v>
+      </c>
+      <c r="I17" t="s">
         <v>354</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>355</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>356</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M17" t="s">
         <v>357</v>
-      </c>
-      <c r="K17" t="s">
-        <v>358</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M17" t="s">
-        <v>359</v>
       </c>
       <c r="N17" t="s">
         <v>254</v>
@@ -6466,7 +6449,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6478,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF17" t="s">
         <v>305</v>
@@ -6496,7 +6479,7 @@
         <v>134</v>
       </c>
       <c r="AL17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM17" t="s">
         <v>232</v>
@@ -6505,7 +6488,7 @@
         <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6517,10 +6500,10 @@
         <v>175</v>
       </c>
       <c r="AT17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AU17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -6529,21 +6512,21 @@
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E18">
         <v>2009</v>
@@ -6552,25 +6535,25 @@
         <v>246</v>
       </c>
       <c r="G18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H18" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" t="s">
         <v>354</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>355</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>356</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M18" t="s">
         <v>357</v>
-      </c>
-      <c r="K18" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M18" t="s">
-        <v>359</v>
       </c>
       <c r="N18" t="s">
         <v>254</v>
@@ -6603,7 +6586,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6615,7 +6598,7 @@
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF18" t="s">
         <v>305</v>
@@ -6636,7 +6619,7 @@
         <v>134</v>
       </c>
       <c r="AL18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
@@ -6645,7 +6628,7 @@
         <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6654,10 +6637,10 @@
         <v>171</v>
       </c>
       <c r="AT18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AU18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
@@ -6666,51 +6649,51 @@
         <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E19">
         <v>2009</v>
       </c>
       <c r="F19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" t="s">
         <v>368</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>369</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>370</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>371</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M19" t="s">
         <v>372</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>373</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M19" t="s">
-        <v>374</v>
-      </c>
-      <c r="N19" t="s">
-        <v>375</v>
       </c>
       <c r="O19" t="s">
         <v>255</v>
@@ -6740,7 +6723,7 @@
         <v>113</v>
       </c>
       <c r="Y19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z19" t="s">
         <v>289</v>
@@ -6773,7 +6756,7 @@
         <v>233</v>
       </c>
       <c r="AO19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6788,7 +6771,7 @@
         <v>284</v>
       </c>
       <c r="AU19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AV19" t="s">
         <v>204</v>
@@ -6797,51 +6780,51 @@
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E20">
         <v>2009</v>
       </c>
       <c r="F20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" t="s">
         <v>368</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>369</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>370</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>371</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M20" t="s">
         <v>372</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>373</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="M20" t="s">
-        <v>374</v>
-      </c>
-      <c r="N20" t="s">
-        <v>375</v>
       </c>
       <c r="O20" t="s">
         <v>255</v>
@@ -6871,7 +6854,7 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z20" t="s">
         <v>289</v>
@@ -6907,7 +6890,7 @@
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -6922,7 +6905,7 @@
         <v>284</v>
       </c>
       <c r="AU20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AV20" t="s">
         <v>204</v>
@@ -6931,48 +6914,48 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E21">
         <v>2008</v>
       </c>
       <c r="F21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H21" t="s">
         <v>383</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>384</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>385</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M21" t="s">
         <v>387</v>
-      </c>
-      <c r="K21" t="s">
-        <v>388</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="M21" t="s">
-        <v>389</v>
       </c>
       <c r="N21" t="s">
         <v>254</v>
@@ -7038,7 +7021,7 @@
         <v>160</v>
       </c>
       <c r="AO21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7062,48 +7045,48 @@
         <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" t="s">
         <v>383</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>384</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>385</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>386</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" t="s">
         <v>387</v>
-      </c>
-      <c r="K22" t="s">
-        <v>388</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="M22" t="s">
-        <v>389</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7169,7 +7152,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7193,48 +7176,48 @@
         <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" t="s">
+        <v>382</v>
+      </c>
+      <c r="H23" t="s">
         <v>383</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>384</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>385</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>386</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M23" t="s">
         <v>387</v>
-      </c>
-      <c r="K23" t="s">
-        <v>388</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="M23" t="s">
-        <v>389</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7300,7 +7283,7 @@
         <v>160</v>
       </c>
       <c r="AO23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7324,48 +7307,48 @@
         <v>207</v>
       </c>
       <c r="AX23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" t="s">
         <v>383</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>384</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>385</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>386</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" t="s">
         <v>387</v>
-      </c>
-      <c r="K24" t="s">
-        <v>388</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="M24" t="s">
-        <v>389</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7431,7 +7414,7 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7455,48 +7438,48 @@
         <v>207</v>
       </c>
       <c r="AX24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" t="s">
+        <v>336</v>
+      </c>
+      <c r="I25" t="s">
         <v>397</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>398</v>
       </c>
-      <c r="H25" t="s">
-        <v>338</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>399</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M25" t="s">
         <v>400</v>
-      </c>
-      <c r="K25" t="s">
-        <v>401</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="M25" t="s">
-        <v>402</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7529,10 +7512,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7565,7 +7548,7 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7577,10 +7560,10 @@
         <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AU25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AV25" t="s">
         <v>205</v>
@@ -7589,48 +7572,48 @@
         <v>208</v>
       </c>
       <c r="AX25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26" t="s">
         <v>397</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>398</v>
       </c>
-      <c r="H26" t="s">
-        <v>338</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>399</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" t="s">
         <v>400</v>
-      </c>
-      <c r="K26" t="s">
-        <v>401</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="M26" t="s">
-        <v>402</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7663,10 +7646,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7699,7 +7682,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7711,10 +7694,10 @@
         <v>175</v>
       </c>
       <c r="AT26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AU26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AV26" t="s">
         <v>205</v>
@@ -7723,48 +7706,48 @@
         <v>208</v>
       </c>
       <c r="AX26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27" t="s">
         <v>412</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" t="s">
         <v>413</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="s">
-        <v>354</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="M27" t="s">
         <v>415</v>
-      </c>
-      <c r="K27" t="s">
-        <v>416</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="M27" t="s">
-        <v>417</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7797,7 +7780,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7830,16 +7813,16 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AT27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AU27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AV27" t="s">
         <v>203</v>
@@ -7848,48 +7831,48 @@
         <v>208</v>
       </c>
       <c r="AX27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E28">
         <v>2008</v>
       </c>
       <c r="F28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" t="s">
         <v>412</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>352</v>
+      </c>
+      <c r="J28" t="s">
         <v>413</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>414</v>
       </c>
-      <c r="I28" t="s">
-        <v>354</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="L28" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="M28" t="s">
         <v>415</v>
-      </c>
-      <c r="K28" t="s">
-        <v>416</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="M28" t="s">
-        <v>417</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7922,7 +7905,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7955,16 +7938,16 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AT28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AU28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AV28" t="s">
         <v>203</v>
@@ -7973,48 +7956,48 @@
         <v>208</v>
       </c>
       <c r="AX28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E29">
         <v>2007</v>
       </c>
       <c r="F29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H29" t="s">
         <v>267</v>
       </c>
       <c r="I29" t="s">
+        <v>426</v>
+      </c>
+      <c r="J29" t="s">
+        <v>427</v>
+      </c>
+      <c r="K29" t="s">
         <v>428</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="M29" t="s">
         <v>429</v>
-      </c>
-      <c r="K29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="M29" t="s">
-        <v>431</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
@@ -8047,7 +8030,7 @@
         <v>72</v>
       </c>
       <c r="Z29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AA29">
         <v>3</v>
@@ -8077,7 +8060,7 @@
         <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -8086,7 +8069,7 @@
         <v>162</v>
       </c>
       <c r="AO29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8095,10 +8078,10 @@
         <v>113</v>
       </c>
       <c r="AT29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AU29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -8107,21 +8090,21 @@
         <v>208</v>
       </c>
       <c r="AX29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E30">
         <v>2006</v>
@@ -8130,31 +8113,31 @@
         <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H30" t="s">
         <v>248</v>
       </c>
       <c r="I30" t="s">
+        <v>441</v>
+      </c>
+      <c r="J30" t="s">
+        <v>442</v>
+      </c>
+      <c r="K30" t="s">
         <v>443</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="M30" t="s">
         <v>444</v>
-      </c>
-      <c r="K30" t="s">
-        <v>445</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="M30" t="s">
-        <v>446</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P30" t="s">
         <v>252</v>
@@ -8181,7 +8164,7 @@
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8205,7 +8188,7 @@
         <v>134</v>
       </c>
       <c r="AL30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -8214,7 +8197,7 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8226,10 +8209,10 @@
         <v>175</v>
       </c>
       <c r="AT30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AU30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AV30" t="s">
         <v>238</v>
@@ -8238,48 +8221,48 @@
         <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E31">
         <v>2006</v>
       </c>
       <c r="F31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H31" t="s">
         <v>248</v>
       </c>
       <c r="I31" t="s">
+        <v>457</v>
+      </c>
+      <c r="J31" t="s">
+        <v>458</v>
+      </c>
+      <c r="K31" t="s">
         <v>459</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="M31" t="s">
         <v>460</v>
-      </c>
-      <c r="K31" t="s">
-        <v>461</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="M31" t="s">
-        <v>462</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -8288,7 +8271,7 @@
         <v>255</v>
       </c>
       <c r="P31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -8312,7 +8295,7 @@
         <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8336,7 +8319,7 @@
         <v>134</v>
       </c>
       <c r="AL31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -8345,7 +8328,7 @@
         <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -8354,10 +8337,10 @@
         <v>239</v>
       </c>
       <c r="AT31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AU31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AV31" t="s">
         <v>238</v>
@@ -8366,48 +8349,48 @@
         <v>208</v>
       </c>
       <c r="AX31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E32">
         <v>2006</v>
       </c>
       <c r="F32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H32" t="s">
         <v>248</v>
       </c>
       <c r="I32" t="s">
+        <v>457</v>
+      </c>
+      <c r="J32" t="s">
+        <v>458</v>
+      </c>
+      <c r="K32" t="s">
         <v>459</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="M32" t="s">
         <v>460</v>
-      </c>
-      <c r="K32" t="s">
-        <v>461</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="M32" t="s">
-        <v>462</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
@@ -8416,7 +8399,7 @@
         <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
@@ -8440,7 +8423,7 @@
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8464,7 +8447,7 @@
         <v>134</v>
       </c>
       <c r="AL32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -8473,7 +8456,7 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -8485,10 +8468,10 @@
         <v>188</v>
       </c>
       <c r="AT32" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AU32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AV32" t="s">
         <v>238</v>
@@ -8497,48 +8480,48 @@
         <v>208</v>
       </c>
       <c r="AX32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E33">
         <v>2006</v>
       </c>
       <c r="F33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H33" t="s">
         <v>248</v>
       </c>
       <c r="I33" t="s">
+        <v>457</v>
+      </c>
+      <c r="J33" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" t="s">
         <v>459</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="M33" t="s">
         <v>460</v>
-      </c>
-      <c r="K33" t="s">
-        <v>461</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="M33" t="s">
-        <v>462</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8547,7 +8530,7 @@
         <v>255</v>
       </c>
       <c r="P33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -8571,7 +8554,7 @@
         <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8595,7 +8578,7 @@
         <v>134</v>
       </c>
       <c r="AL33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM33" t="s">
         <v>232</v>
@@ -8604,7 +8587,7 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8613,10 +8596,10 @@
         <v>113</v>
       </c>
       <c r="AT33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AU33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AV33" t="s">
         <v>238</v>
@@ -8625,48 +8608,48 @@
         <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E34">
         <v>2006</v>
       </c>
       <c r="F34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H34" t="s">
         <v>248</v>
       </c>
       <c r="I34" t="s">
+        <v>457</v>
+      </c>
+      <c r="J34" t="s">
+        <v>458</v>
+      </c>
+      <c r="K34" t="s">
         <v>459</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="M34" t="s">
         <v>460</v>
-      </c>
-      <c r="K34" t="s">
-        <v>461</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="M34" t="s">
-        <v>462</v>
       </c>
       <c r="N34" t="s">
         <v>254</v>
@@ -8675,7 +8658,7 @@
         <v>255</v>
       </c>
       <c r="P34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
@@ -8699,7 +8682,7 @@
         <v>69</v>
       </c>
       <c r="Z34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8729,13 +8712,13 @@
         <v>134</v>
       </c>
       <c r="AL34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
       </c>
       <c r="AO34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8747,10 +8730,10 @@
         <v>175</v>
       </c>
       <c r="AT34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AU34" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AV34" t="s">
         <v>238</v>
@@ -8759,48 +8742,48 @@
         <v>208</v>
       </c>
       <c r="AX34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E35">
         <v>2005</v>
       </c>
       <c r="F35" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H35" t="s">
         <v>252</v>
       </c>
       <c r="I35" t="s">
+        <v>472</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+      <c r="K35" t="s">
         <v>474</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M35" t="s">
         <v>475</v>
-      </c>
-      <c r="K35" t="s">
-        <v>476</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="M35" t="s">
-        <v>477</v>
       </c>
       <c r="N35" t="s">
         <v>254</v>
@@ -8833,7 +8816,7 @@
         <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -8857,25 +8840,25 @@
         <v>150</v>
       </c>
       <c r="AL35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AM35" t="s">
         <v>159</v>
       </c>
       <c r="AO35" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AT35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AU35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AV35" t="s">
         <v>212</v>
@@ -8884,48 +8867,48 @@
         <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B36" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E36">
         <v>2005</v>
       </c>
       <c r="F36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H36" t="s">
         <v>252</v>
       </c>
       <c r="I36" t="s">
+        <v>472</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+      <c r="K36" t="s">
         <v>474</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M36" t="s">
         <v>475</v>
-      </c>
-      <c r="K36" t="s">
-        <v>476</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="M36" t="s">
-        <v>477</v>
       </c>
       <c r="N36" t="s">
         <v>254</v>
@@ -8955,13 +8938,10 @@
         <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>487</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -8985,25 +8965,25 @@
         <v>150</v>
       </c>
       <c r="AL36" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AM36" t="s">
         <v>159</v>
       </c>
       <c r="AO36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
       <c r="AR36" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AT36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AU36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AV36" t="s">
         <v>212</v>
@@ -9012,7 +8992,7 @@
         <v>207</v>
       </c>
       <c r="AX36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -11160,21 +11140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11288,17 +11253,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11312,17 +11293,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749B563-F828-4483-9B4C-F57AD8DCEE18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D8DCA0-1A3A-4051-8B63-9D8A862E7026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$35</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="494">
   <si>
     <t>SearchID</t>
   </si>
@@ -3225,9 +3225,6 @@
     <t xml:space="preserve">Quantification of by catch rate </t>
   </si>
   <si>
-    <t>Quantification of sighting rate in Adriatic</t>
-  </si>
-  <si>
     <t>SW4_1190</t>
   </si>
   <si>
@@ -3696,9 +3693,6 @@
     <t>Fishing mortality</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass _ recruitment </t>
-  </si>
-  <si>
     <t>Diagnostics show that each studied cohort was generally fully exploited, and do not reveal evidence of recruitment over-fishing</t>
   </si>
   <si>
@@ -3738,12 +3732,6 @@
     <t>Merluccius merluccius</t>
   </si>
   <si>
-    <t>Biomass _ recruitment _ management measure</t>
-  </si>
-  <si>
-    <t>Gear change and TAC impact both species (TAC also impacted the total nominal effort) whereasMPA had significant effect especially on the Nephrops population.</t>
-  </si>
-  <si>
     <t>ISIS-Fish _ PCA</t>
   </si>
   <si>
@@ -3811,6 +3799,33 @@
   </si>
   <si>
     <t>Aggregation on artificial reef</t>
+  </si>
+  <si>
+    <t>Catch operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The annual number of by-caught turtles was 863 (CV = 0.15), with 99% released alive. </t>
+  </si>
+  <si>
+    <t>Quantification of by catch rate.  Thintail threshers (Alopias vulpinus), piked dogfish (Squalus acanthias) and smooth-hounds (Mustelus mustelus), which are both commercial and vulnerable to overfishing, were taken in large numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment </t>
+  </si>
+  <si>
+    <t>Gear change and TAC impact both species (TAC also impacted the total nominal effort) whereas MPA had significant effect especially on the Nephrops population.</t>
+  </si>
+  <si>
+    <t>Spawning biomass</t>
+  </si>
+  <si>
+    <t>An MPA in the hake spawning zone, aimed at protecting hake spawning biomass, had limited effects, probably because they were small compared to the population zone, where abundance is considered as homogeneous (Fig. 4).</t>
+  </si>
+  <si>
+    <t>Merluccius merluccius _ Nephrops norvegicus</t>
+  </si>
+  <si>
+    <t>MPA</t>
   </si>
 </sst>
 </file>
@@ -4280,29 +4295,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX36"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR39" sqref="AR39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="41" width="15.90625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -4368,7 +4383,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4555,7 +4570,7 @@
         <v>251</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4645,7 +4660,7 @@
         <v>260</v>
       </c>
       <c r="AV3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW3" t="s">
         <v>208</v>
@@ -4654,7 +4669,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -4689,7 +4704,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4776,7 +4791,7 @@
         <v>260</v>
       </c>
       <c r="AV4" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW4" t="s">
         <v>208</v>
@@ -4785,7 +4800,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -4820,7 +4835,7 @@
         <v>269</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4922,7 +4937,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>281</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -5053,16 +5068,16 @@
         <v>291</v>
       </c>
       <c r="AV6" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW6" t="s">
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -5097,7 +5112,7 @@
         <v>281</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -5160,7 +5175,7 @@
         <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -5169,7 +5184,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5187,16 +5202,16 @@
         <v>290</v>
       </c>
       <c r="AV7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AW7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>292</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -5231,7 +5246,7 @@
         <v>281</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M8" t="s">
         <v>282</v>
@@ -5285,14 +5300,17 @@
         <v>109</v>
       </c>
       <c r="AH8" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="AI8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AK8" t="s">
         <v>150</v>
       </c>
+      <c r="AL8" t="s">
+        <v>317</v>
+      </c>
       <c r="AM8" t="s">
         <v>232</v>
       </c>
@@ -5300,7 +5318,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5318,7 +5336,7 @@
         <v>290</v>
       </c>
       <c r="AV8" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW8" t="s">
         <v>208</v>
@@ -5327,7 +5345,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>281</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M9" t="s">
         <v>282</v>
@@ -5419,7 +5437,7 @@
         <v>220</v>
       </c>
       <c r="AI9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s">
         <v>150</v>
@@ -5449,54 +5467,54 @@
         <v>290</v>
       </c>
       <c r="AV9" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW9" t="s">
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E10">
         <v>2010</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="I10" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="J10" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K10" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="N10" t="s">
         <v>254</v>
@@ -5505,31 +5523,31 @@
         <v>255</v>
       </c>
       <c r="P10" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T10" t="s">
         <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X10" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5538,93 +5556,96 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>3</v>
-      </c>
-      <c r="AF10">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>257</v>
       </c>
       <c r="AG10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH10" t="s">
-        <v>116</v>
+        <v>220</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>139</v>
       </c>
       <c r="AK10" t="s">
         <v>150</v>
       </c>
-      <c r="AL10" t="s">
-        <v>317</v>
-      </c>
       <c r="AM10" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>162</v>
       </c>
       <c r="AO10" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
       </c>
       <c r="AR10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AT10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU10" t="s">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="AV10" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AW10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J11" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="K11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" t="s">
-        <v>344</v>
+        <v>301</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="M11" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -5633,7 +5654,7 @@
         <v>255</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
@@ -5645,19 +5666,19 @@
         <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X11" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Z11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5668,94 +5689,91 @@
       <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AF11" t="s">
-        <v>305</v>
+      <c r="AF11">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>316</v>
       </c>
       <c r="AM11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
       </c>
       <c r="AR11" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS11" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT11" t="s">
         <v>284</v>
       </c>
       <c r="AU11" t="s">
-        <v>260</v>
+        <v>481</v>
       </c>
       <c r="AV11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AW11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX11" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E12">
         <v>2009</v>
       </c>
       <c r="F12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" t="s">
         <v>311</v>
-      </c>
-      <c r="G12" t="s">
-        <v>312</v>
       </c>
       <c r="H12" t="s">
         <v>248</v>
       </c>
       <c r="I12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" t="s">
         <v>313</v>
-      </c>
-      <c r="J12" t="s">
-        <v>314</v>
       </c>
       <c r="K12" t="s">
         <v>252</v>
       </c>
       <c r="L12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5785,10 +5803,10 @@
         <v>55</v>
       </c>
       <c r="X12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5800,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="AF12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG12" t="s">
         <v>109</v>
@@ -5821,7 +5839,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5845,48 +5863,48 @@
         <v>210</v>
       </c>
       <c r="AX12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E13">
         <v>2009</v>
       </c>
       <c r="F13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" t="s">
         <v>311</v>
-      </c>
-      <c r="G13" t="s">
-        <v>312</v>
       </c>
       <c r="H13" t="s">
         <v>248</v>
       </c>
       <c r="I13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J13" t="s">
         <v>313</v>
-      </c>
-      <c r="J13" t="s">
-        <v>314</v>
       </c>
       <c r="K13" t="s">
         <v>252</v>
       </c>
       <c r="L13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5916,10 +5934,10 @@
         <v>55</v>
       </c>
       <c r="X13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5931,16 +5949,16 @@
         <v>3</v>
       </c>
       <c r="AF13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG13" t="s">
         <v>109</v>
       </c>
       <c r="AH13" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s">
         <v>141</v>
@@ -5952,7 +5970,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -5976,48 +5994,48 @@
         <v>210</v>
       </c>
       <c r="AX13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" t="s">
         <v>311</v>
-      </c>
-      <c r="G14" t="s">
-        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
       </c>
       <c r="I14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" t="s">
         <v>313</v>
-      </c>
-      <c r="J14" t="s">
-        <v>314</v>
       </c>
       <c r="K14" t="s">
         <v>252</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>344</v>
+      <c r="L14" t="s">
+        <v>343</v>
       </c>
       <c r="M14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N14" t="s">
         <v>254</v>
@@ -6047,10 +6065,10 @@
         <v>55</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6062,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="AF14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG14" t="s">
         <v>109</v>
@@ -6083,7 +6101,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6107,48 +6125,48 @@
         <v>210</v>
       </c>
       <c r="AX14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E15">
         <v>2009</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="G15" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="K15" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M15" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="N15" t="s">
         <v>254</v>
@@ -6166,22 +6184,22 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
         <v>41</v>
       </c>
-      <c r="U15" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" t="s">
-        <v>43</v>
-      </c>
       <c r="W15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6193,16 +6211,16 @@
         <v>3</v>
       </c>
       <c r="AF15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG15" t="s">
         <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s">
         <v>141</v>
@@ -6214,19 +6232,16 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>486</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="AQ15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR15" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AS15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AT15" t="s">
         <v>284</v>
@@ -6235,54 +6250,54 @@
         <v>260</v>
       </c>
       <c r="AV15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX15" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E16">
         <v>2009</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="J16" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K16" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -6297,25 +6312,25 @@
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X16" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z16" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6326,97 +6341,97 @@
       <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AF16" s="8">
-        <v>4.3</v>
+      <c r="AF16" t="s">
+        <v>304</v>
       </c>
       <c r="AG16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>160</v>
       </c>
       <c r="AO16" t="s">
         <v>482</v>
       </c>
       <c r="AP16" t="s">
-        <v>483</v>
+        <v>327</v>
       </c>
       <c r="AQ16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR16" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AS16" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AT16" t="s">
         <v>284</v>
       </c>
       <c r="AU16" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="AV16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E17">
         <v>2009</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="H17" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="J17" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="K17" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="M17" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="N17" t="s">
         <v>254</v>
@@ -6431,25 +6446,25 @@
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6460,14 +6475,11 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AE17" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>305</v>
+      <c r="AF17" s="8">
+        <v>4.3</v>
       </c>
       <c r="AG17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
         <v>120</v>
@@ -6475,20 +6487,20 @@
       <c r="AI17" t="s">
         <v>140</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>113</v>
+      </c>
       <c r="AK17" t="s">
         <v>134</v>
       </c>
-      <c r="AL17" t="s">
-        <v>358</v>
-      </c>
       <c r="AM17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>359</v>
+        <v>478</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>479</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6500,33 +6512,33 @@
         <v>175</v>
       </c>
       <c r="AT17" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="AU17" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AV17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW17" t="s">
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="E18">
         <v>2009</v>
@@ -6535,25 +6547,25 @@
         <v>246</v>
       </c>
       <c r="G18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H18" t="s">
         <v>352</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>353</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>354</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>355</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M18" t="s">
         <v>356</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="M18" t="s">
-        <v>357</v>
       </c>
       <c r="N18" t="s">
         <v>254</v>
@@ -6586,7 +6598,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6598,10 +6610,10 @@
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG18" t="s">
         <v>109</v>
@@ -6610,16 +6622,13 @@
         <v>120</v>
       </c>
       <c r="AI18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s">
         <v>134</v>
       </c>
       <c r="AL18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM18" t="s">
         <v>232</v>
@@ -6628,78 +6637,81 @@
         <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
       </c>
       <c r="AR18" t="s">
-        <v>171</v>
+        <v>239</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>175</v>
       </c>
       <c r="AT18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AU18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AV18" t="s">
         <v>199</v>
       </c>
       <c r="AW18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E19">
         <v>2009</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="J19" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K19" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M19" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="N19" t="s">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="O19" t="s">
         <v>255</v>
       </c>
       <c r="P19" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="Q19" t="s">
         <v>21</v>
@@ -6708,25 +6720,22 @@
         <v>26</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>374</v>
+        <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6737,11 +6746,14 @@
       <c r="AC19">
         <v>3</v>
       </c>
-      <c r="AF19">
-        <v>4.3</v>
+      <c r="AE19" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>304</v>
       </c>
       <c r="AG19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH19" t="s">
         <v>120</v>
@@ -6749,88 +6761,94 @@
       <c r="AI19" t="s">
         <v>133</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>113</v>
+      </c>
       <c r="AK19" t="s">
         <v>134</v>
       </c>
+      <c r="AL19" t="s">
+        <v>357</v>
+      </c>
       <c r="AM19" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
       </c>
       <c r="AR19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AT19" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="AU19" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AV19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW19" t="s">
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="E20">
         <v>2009</v>
       </c>
       <c r="F20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" t="s">
         <v>366</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>367</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>368</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>369</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>370</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M20" t="s">
         <v>371</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>372</v>
-      </c>
-      <c r="N20" t="s">
-        <v>373</v>
       </c>
       <c r="O20" t="s">
         <v>255</v>
       </c>
       <c r="P20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
@@ -6854,7 +6872,7 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z20" t="s">
         <v>289</v>
@@ -6878,10 +6896,7 @@
         <v>120</v>
       </c>
       <c r="AI20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK20" t="s">
         <v>134</v>
@@ -6890,7 +6905,7 @@
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -6905,7 +6920,7 @@
         <v>284</v>
       </c>
       <c r="AU20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AV20" t="s">
         <v>204</v>
@@ -6914,179 +6929,182 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E21">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F21" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G21" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="K21" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M21" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="N21" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="O21" t="s">
         <v>255</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>373</v>
       </c>
       <c r="Z21" t="s">
         <v>289</v>
       </c>
       <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
         <v>3</v>
       </c>
-      <c r="AB21">
-        <v>3</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>305</v>
+      <c r="AF21">
+        <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>113</v>
       </c>
       <c r="AK21" t="s">
         <v>134</v>
       </c>
       <c r="AM21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
       </c>
       <c r="AR21" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT21" t="s">
         <v>284</v>
       </c>
       <c r="AU21" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="AV21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AW21" t="s">
         <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" t="s">
         <v>381</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>382</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>383</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>384</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>385</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M22" t="s">
         <v>386</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M22" t="s">
-        <v>387</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7131,16 +7149,16 @@
         <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG22" t="s">
         <v>109</v>
       </c>
       <c r="AH22" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI22" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AK22" t="s">
         <v>134</v>
@@ -7152,7 +7170,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7176,48 +7194,48 @@
         <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" t="s">
         <v>381</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>382</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>383</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>384</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>385</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" t="s">
         <v>386</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M23" t="s">
-        <v>387</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7262,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG23" t="s">
         <v>109</v>
@@ -7271,7 +7289,7 @@
         <v>220</v>
       </c>
       <c r="AI23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AK23" t="s">
         <v>134</v>
@@ -7283,7 +7301,7 @@
         <v>160</v>
       </c>
       <c r="AO23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7292,7 +7310,7 @@
         <v>170</v>
       </c>
       <c r="AS23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT23" t="s">
         <v>284</v>
@@ -7307,48 +7325,48 @@
         <v>207</v>
       </c>
       <c r="AX23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" t="s">
         <v>381</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>382</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>383</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>384</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M24" t="s">
         <v>386</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M24" t="s">
-        <v>387</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7393,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG24" t="s">
         <v>109</v>
@@ -7402,7 +7420,7 @@
         <v>220</v>
       </c>
       <c r="AI24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s">
         <v>134</v>
@@ -7414,7 +7432,7 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7423,7 +7441,7 @@
         <v>170</v>
       </c>
       <c r="AS24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT24" t="s">
         <v>284</v>
@@ -7438,48 +7456,48 @@
         <v>207</v>
       </c>
       <c r="AX24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="I25" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="J25" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K25" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M25" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7494,126 +7512,123 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" t="s">
+        <v>57</v>
+      </c>
+      <c r="V25" t="s">
         <v>46</v>
       </c>
-      <c r="U25" t="s">
-        <v>54</v>
-      </c>
-      <c r="V25" t="s">
-        <v>43</v>
-      </c>
       <c r="W25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="Z25" t="s">
-        <v>405</v>
+        <v>289</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AF25">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>304</v>
       </c>
       <c r="AG25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH25" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s">
         <v>134</v>
       </c>
       <c r="AM25" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>160</v>
       </c>
       <c r="AO25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AR25" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS25" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AT25" t="s">
-        <v>403</v>
+        <v>284</v>
       </c>
       <c r="AU25" t="s">
-        <v>404</v>
+        <v>260</v>
       </c>
       <c r="AV25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX25" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G26" t="s">
         <v>395</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>335</v>
+      </c>
+      <c r="I26" t="s">
         <v>396</v>
       </c>
-      <c r="H26" t="s">
-        <v>336</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>397</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>398</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M26" t="s">
         <v>399</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="M26" t="s">
-        <v>400</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7628,7 +7643,7 @@
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T26" t="s">
         <v>46</v>
@@ -7646,10 +7661,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7682,7 +7697,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7694,10 +7709,10 @@
         <v>175</v>
       </c>
       <c r="AT26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU26" t="s">
         <v>403</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>404</v>
       </c>
       <c r="AV26" t="s">
         <v>205</v>
@@ -7706,48 +7721,48 @@
         <v>208</v>
       </c>
       <c r="AX26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G27" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H27" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="I27" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="K27" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M27" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7762,25 +7777,28 @@
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X27" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>401</v>
       </c>
       <c r="Z27" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7792,87 +7810,93 @@
         <v>3</v>
       </c>
       <c r="AF27">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI27" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>113</v>
       </c>
       <c r="AK27" t="s">
         <v>134</v>
       </c>
       <c r="AM27" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
+      <c r="AR27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>175</v>
+      </c>
       <c r="AT27" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="AU27" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AV27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AW27" t="s">
         <v>208</v>
       </c>
       <c r="AX27" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="E28">
         <v>2008</v>
       </c>
       <c r="F28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G28" t="s">
         <v>410</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>411</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>351</v>
+      </c>
+      <c r="J28" t="s">
         <v>412</v>
       </c>
-      <c r="I28" t="s">
-        <v>352</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>413</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="M28" t="s">
         <v>414</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="M28" t="s">
-        <v>415</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7905,7 +7929,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7923,10 +7947,10 @@
         <v>111</v>
       </c>
       <c r="AH28" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s">
         <v>134</v>
@@ -7938,16 +7962,16 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AT28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AV28" t="s">
         <v>203</v>
@@ -7956,48 +7980,48 @@
         <v>208</v>
       </c>
       <c r="AX28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="E29">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="G29" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="I29" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="J29" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K29" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="M29" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
@@ -8012,132 +8036,123 @@
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s">
         <v>55</v>
       </c>
       <c r="X29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AB29">
-        <v>3</v>
-      </c>
-      <c r="AC29">
-        <v>1</v>
-      </c>
       <c r="AF29">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH29" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AK29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
       </c>
       <c r="AN29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO29" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
-      <c r="AR29" t="s">
-        <v>113</v>
-      </c>
       <c r="AT29" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="AU29" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="AV29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW29" t="s">
         <v>208</v>
       </c>
       <c r="AX29" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="E30">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="G30" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="I30" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="J30" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K30" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="M30" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="P30" t="s">
         <v>252</v>
@@ -8146,138 +8161,141 @@
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T30" t="s">
         <v>46</v>
       </c>
       <c r="U30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" t="s">
         <v>55</v>
       </c>
-      <c r="V30" t="s">
-        <v>45</v>
-      </c>
-      <c r="W30" t="s">
-        <v>51</v>
-      </c>
       <c r="X30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30">
-        <v>3</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>305</v>
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
       </c>
       <c r="AG30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH30" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>155</v>
       </c>
       <c r="AK30" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL30" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
       </c>
       <c r="AN30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO30" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="AT30" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AU30" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="AV30" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW30" t="s">
         <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E31">
         <v>2006</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="J31" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="K31" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="M31" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="P31" t="s">
-        <v>461</v>
+        <v>252</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T31" t="s">
         <v>46</v>
@@ -8286,16 +8304,16 @@
         <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X31" t="s">
         <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8304,22 +8322,22 @@
         <v>2</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s">
         <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s">
         <v>134</v>
       </c>
       <c r="AL31" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -8328,7 +8346,7 @@
         <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -8336,61 +8354,64 @@
       <c r="AR31" t="s">
         <v>239</v>
       </c>
+      <c r="AS31" t="s">
+        <v>175</v>
+      </c>
       <c r="AT31" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AU31" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="AV31" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="AW31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX31" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E32">
         <v>2006</v>
       </c>
       <c r="F32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H32" t="s">
         <v>248</v>
       </c>
       <c r="I32" t="s">
+        <v>455</v>
+      </c>
+      <c r="J32" t="s">
+        <v>456</v>
+      </c>
+      <c r="K32" t="s">
         <v>457</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M32" t="s">
         <v>458</v>
-      </c>
-      <c r="K32" t="s">
-        <v>459</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="M32" t="s">
-        <v>460</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
@@ -8399,7 +8420,7 @@
         <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
@@ -8423,7 +8444,7 @@
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8435,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s">
         <v>111</v>
@@ -8447,7 +8468,7 @@
         <v>134</v>
       </c>
       <c r="AL32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -8456,72 +8477,66 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
-      <c r="AR32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>188</v>
-      </c>
       <c r="AT32" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="AU32" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="AV32" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AW32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX32" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E33">
         <v>2006</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H33" t="s">
         <v>248</v>
       </c>
       <c r="I33" t="s">
+        <v>455</v>
+      </c>
+      <c r="J33" t="s">
+        <v>456</v>
+      </c>
+      <c r="K33" t="s">
         <v>457</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M33" t="s">
         <v>458</v>
-      </c>
-      <c r="K33" t="s">
-        <v>459</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="M33" t="s">
-        <v>460</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8530,7 +8545,7 @@
         <v>255</v>
       </c>
       <c r="P33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -8554,7 +8569,7 @@
         <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8566,19 +8581,25 @@
         <v>2</v>
       </c>
       <c r="AF33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s">
         <v>111</v>
       </c>
       <c r="AH33" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>113</v>
       </c>
       <c r="AK33" t="s">
         <v>134</v>
       </c>
       <c r="AL33" t="s">
-        <v>463</v>
+        <v>357</v>
       </c>
       <c r="AM33" t="s">
         <v>232</v>
@@ -8587,69 +8608,66 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
-      <c r="AR33" t="s">
-        <v>113</v>
-      </c>
       <c r="AT33" t="s">
+        <v>492</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>463</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>464</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>452</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F34" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="G34" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I34" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="J34" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="K34" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M34" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="N34" t="s">
         <v>254</v>
@@ -8658,31 +8676,31 @@
         <v>255</v>
       </c>
       <c r="P34" t="s">
-        <v>461</v>
+        <v>252</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T34" t="s">
         <v>46</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8691,34 +8709,28 @@
         <v>2</v>
       </c>
       <c r="AC34">
-        <v>2</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>305</v>
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="AM34" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="AO34" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8726,64 +8738,61 @@
       <c r="AR34" t="s">
         <v>239</v>
       </c>
-      <c r="AS34" t="s">
-        <v>175</v>
-      </c>
       <c r="AT34" t="s">
-        <v>358</v>
+        <v>475</v>
       </c>
       <c r="AU34" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="AV34" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="AW34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX34" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E35">
         <v>2005</v>
       </c>
       <c r="F35" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G35" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H35" t="s">
         <v>252</v>
       </c>
       <c r="I35" t="s">
+        <v>468</v>
+      </c>
+      <c r="J35" t="s">
+        <v>469</v>
+      </c>
+      <c r="K35" t="s">
+        <v>470</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J35" t="s">
-        <v>473</v>
-      </c>
-      <c r="K35" t="s">
-        <v>474</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>476</v>
-      </c>
       <c r="M35" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N35" t="s">
         <v>254</v>
@@ -8813,10 +8822,10 @@
         <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -8840,13 +8849,13 @@
         <v>150</v>
       </c>
       <c r="AL35" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM35" t="s">
         <v>159</v>
       </c>
       <c r="AO35" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8855,10 +8864,10 @@
         <v>239</v>
       </c>
       <c r="AT35" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AU35" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AV35" t="s">
         <v>212</v>
@@ -8867,132 +8876,7 @@
         <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>467</v>
-      </c>
-      <c r="B36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" t="s">
-        <v>468</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="E36">
-        <v>2005</v>
-      </c>
-      <c r="F36" t="s">
-        <v>470</v>
-      </c>
-      <c r="G36" t="s">
-        <v>471</v>
-      </c>
-      <c r="H36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" t="s">
-        <v>472</v>
-      </c>
-      <c r="J36" t="s">
-        <v>473</v>
-      </c>
-      <c r="K36" t="s">
-        <v>474</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="M36" t="s">
-        <v>475</v>
-      </c>
-      <c r="N36" t="s">
-        <v>254</v>
-      </c>
-      <c r="O36" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T36" t="s">
-        <v>46</v>
-      </c>
-      <c r="U36" t="s">
-        <v>58</v>
-      </c>
-      <c r="V36" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <v>2</v>
-      </c>
-      <c r="AC36">
-        <v>3</v>
-      </c>
-      <c r="AF36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL36" t="s">
         <v>477</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>484</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9006,53 +8890,52 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q9 P10:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q10 P11:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L7" r:id="rId29" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
+    <hyperlink ref="L32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
-  <legacyDrawing r:id="rId33"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -9060,7 +8943,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R5 R10:R1048576</xm:sqref>
+          <xm:sqref>R3:R5 R11:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -9160,17 +9043,17 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -9236,7 +9119,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -9388,7 +9271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -9445,7 +9328,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -9502,7 +9385,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -9558,7 +9441,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -9603,7 +9486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -9645,7 +9528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -9683,7 +9566,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -9718,7 +9601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -9750,7 +9633,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -9785,7 +9668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -9817,7 +9700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -9852,7 +9735,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -9881,7 +9764,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -9910,7 +9793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -9930,7 +9813,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -9938,22 +9821,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -9988,7 +9871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -10014,7 +9897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -10037,7 +9920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -10048,7 +9931,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -10059,7 +9942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -10067,12 +9950,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -10095,7 +9978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -10121,7 +10004,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -10147,7 +10030,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -10167,7 +10050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -10182,7 +10065,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -10196,7 +10079,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -10204,10 +10087,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10235,38 +10118,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.6328125" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.36328125" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -10313,7 +10196,7 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -10414,7 +10297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10480,7 +10363,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -10531,7 +10414,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10585,7 +10468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -10627,7 +10510,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10672,7 +10555,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -10710,7 +10593,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -10748,7 +10631,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -10783,7 +10666,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -10815,7 +10698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -10847,7 +10730,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -10876,7 +10759,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -10899,7 +10782,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -10925,7 +10808,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -10942,7 +10825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -10953,7 +10836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -10967,7 +10850,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -10981,7 +10864,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -10992,7 +10875,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -11006,7 +10889,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -11017,7 +10900,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -11028,7 +10911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -11036,7 +10919,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -11044,7 +10927,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -11052,7 +10935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -11066,7 +10949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -11077,7 +10960,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -11088,7 +10971,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -11099,7 +10982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -11107,7 +10990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -11115,12 +10998,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -11254,18 +11137,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11285,24 +11168,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D8DCA0-1A3A-4051-8B63-9D8A862E7026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36452D8E-8DCD-4A5D-B720-AF76DB85524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$39</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="502">
   <si>
     <t>SearchID</t>
   </si>
@@ -3555,15 +3555,9 @@
     <t>Demersal fish</t>
   </si>
   <si>
-    <t>comunity composition _ biomass _ density</t>
-  </si>
-  <si>
     <t>Average _ SIMPER _ MDS (Multidimensional Scaling)</t>
   </si>
   <si>
-    <t>Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
-  </si>
-  <si>
     <t>SW4_1296</t>
   </si>
   <si>
@@ -3645,9 +3639,6 @@
     <t>swordfish</t>
   </si>
   <si>
-    <t>probability functiom</t>
-  </si>
-  <si>
     <t>A rough estimate of striped dolphin by-catch, based on floating carcases, was calculated as 36 bycaught animals over a period of 12 days (CV=0.58, 95% CI=11–113)</t>
   </si>
   <si>
@@ -3826,6 +3817,43 @@
   </si>
   <si>
     <t>MPA</t>
+  </si>
+  <si>
+    <t>probability function</t>
+  </si>
+  <si>
+    <t>community composition</t>
+  </si>
+  <si>
+    <t>biomass _ abundance</t>
+  </si>
+  <si>
+    <t>Shannon diversity _ evenness</t>
+  </si>
+  <si>
+    <t>The epifaunal abundance was similar at both fished and reference sites with an average of 151.3 ± 64 individuals 1000 m2 at the fished site and 130.6 ± 49 individuals 1000 m2 at the reference site. The epifaunal biomass was also similar at the two study sites, with an average of 1.2 ± 0.3 kg 1000 m2 at the
+fished site and 1.2 ± 0.4 kg 1000 m2 at the reference site. . Both epifaunal abundance and biomass increased during the fishing closure (August,
+C1, and September, C2) but did so equally at both sites, and thus there was no evident effect of the fishing closure on these variables (Table 1a). Fishery seasonal closures may benefit target species by forbidding trawling at times such as  recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>The community diversity, considering Shannon and evenness indices, was similar at the fished and reference sites over the study period (Fig. 2b, Table 1a). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>The multivariate ordination of samples divided fished and reference samples in two groups, with an R value of 0.55 (p &lt; 0.001) and
+a stress level of 0.22 (Fig. 3b).  The similarity between sites increased during the fishing closure. The similarity between fished and reference samples decreases after the closure with the resumption of the fleet activity, and thus it was negatively correlated with the fishing effort level (Pearson
+correlation index: 0.52, p &lt; 0.001). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>Shannon diversity</t>
+  </si>
+  <si>
+    <t>In the Catalan sea, the total epifaunal abundance collected in the samples from June to November was similar at the fished and reference sites (Fig. 2a).  The overall epifaunal biomass was significantly higher at the reference site (fished site: 0.49 ± 0.15 kg 1000 m2 and reference site: 1.0 ± 0.3 kg 1000 m2 ; p &lt; 0.001) with significant variability between months (p &lt; 0.01), while fished site biomass was not significantly variable through time (Fig. 2a, Table 1a). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>The MDS plot represented a segregation of samples from fished and reference sites in two well-defined groups, with a stress level of 0.17 and R value of 0.93 (p &lt; 0.001) (Fig. 3a). The percentage of similarity between fished and reference samples was negatively correlated with fishing effort level (Pearson correlation index: 0.57, p &lt; 0.001). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>Shannon diversity and evenness indices followed a similar pattern with significant differences between sites from August (C3) to September (A1) (p &lt; 0.001), (Fig. 2a). These differences were caused by a slight increase in diversity at the reference site in the August cruise (C3), and a significant decrease in diversity at the fished site after the fishing closure in September (A1) and November (A2) (p &lt; 0.001; Table 1a). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
   </si>
 </sst>
 </file>
@@ -3966,7 +3994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4009,6 +4037,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4295,10 +4324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR39" sqref="AR39"/>
+    <sheetView tabSelected="1" topLeftCell="AK2" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW42" sqref="AW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5184,7 +5213,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5208,7 +5237,7 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -5318,7 +5347,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5473,7 +5502,7 @@
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -5708,7 +5737,7 @@
         <v>159</v>
       </c>
       <c r="AO11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5723,7 +5752,7 @@
         <v>284</v>
       </c>
       <c r="AU11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AV11" t="s">
         <v>212</v>
@@ -5839,7 +5868,7 @@
         <v>160</v>
       </c>
       <c r="AO12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5970,7 +5999,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -6101,7 +6130,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6232,7 +6261,7 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6363,7 +6392,7 @@
         <v>160</v>
       </c>
       <c r="AO16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AP16" t="s">
         <v>327</v>
@@ -6497,10 +6526,10 @@
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AP17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6598,7 +6627,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6735,7 +6764,7 @@
         <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7170,7 +7199,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7301,7 +7330,7 @@
         <v>160</v>
       </c>
       <c r="AO23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7432,7 +7461,7 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7563,7 +7592,7 @@
         <v>160</v>
       </c>
       <c r="AO25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7664,7 +7693,7 @@
         <v>401</v>
       </c>
       <c r="Z26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7697,7 +7726,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7712,16 +7741,16 @@
         <v>402</v>
       </c>
       <c r="AU26" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="AV26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>405</v>
+        <v>209</v>
+      </c>
+      <c r="AX26" s="20" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
@@ -7777,7 +7806,7 @@
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
@@ -7798,7 +7827,7 @@
         <v>401</v>
       </c>
       <c r="Z27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7831,7 +7860,7 @@
         <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -7846,57 +7875,57 @@
         <v>402</v>
       </c>
       <c r="AU27" t="s">
-        <v>403</v>
+        <v>493</v>
       </c>
       <c r="AV27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW27" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>405</v>
+        <v>210</v>
+      </c>
+      <c r="AX27" s="20" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E28">
         <v>2008</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G28" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H28" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="J28" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="K28" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7911,25 +7940,28 @@
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X28" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>401</v>
       </c>
       <c r="Z28" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7941,87 +7973,93 @@
         <v>3</v>
       </c>
       <c r="AF28">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI28" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>113</v>
       </c>
       <c r="AK28" t="s">
         <v>134</v>
       </c>
       <c r="AM28" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO28" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
+      <c r="AR28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>175</v>
+      </c>
       <c r="AT28" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AU28" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="AV28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AW28" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>417</v>
+        <v>210</v>
+      </c>
+      <c r="AX28" s="20" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E29">
         <v>2008</v>
       </c>
       <c r="F29" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G29" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H29" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="I29" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="J29" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="K29" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M29" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
@@ -8036,25 +8074,28 @@
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X29" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>401</v>
       </c>
       <c r="Z29" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8066,87 +8107,93 @@
         <v>3</v>
       </c>
       <c r="AF29">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH29" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI29" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>113</v>
       </c>
       <c r="AK29" t="s">
         <v>134</v>
       </c>
       <c r="AM29" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO29" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
+      <c r="AR29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>175</v>
+      </c>
       <c r="AT29" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AU29" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="AV29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>417</v>
+        <v>209</v>
+      </c>
+      <c r="AX29" s="20" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="E30">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F30" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="G30" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="I30" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="J30" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="K30" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="M30" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
@@ -8167,126 +8214,126 @@
         <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X30" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>401</v>
       </c>
       <c r="Z30" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AB30">
-        <v>3</v>
-      </c>
-      <c r="AC30">
-        <v>1</v>
-      </c>
       <c r="AF30">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AG30" t="s">
         <v>107</v>
       </c>
       <c r="AH30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI30" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AJ30" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="AK30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO30" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>113</v>
+        <v>239</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>175</v>
       </c>
       <c r="AT30" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="AU30" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="AV30" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW30" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>434</v>
+        <v>209</v>
+      </c>
+      <c r="AX30" s="20" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="E31">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="G31" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="I31" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="J31" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="K31" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="M31" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="P31" t="s">
         <v>252</v>
@@ -8295,25 +8342,28 @@
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T31" t="s">
         <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
         <v>51</v>
       </c>
       <c r="X31" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>401</v>
       </c>
       <c r="Z31" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8324,29 +8374,29 @@
       <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AF31" t="s">
-        <v>304</v>
+      <c r="AF31">
+        <v>4.3</v>
       </c>
       <c r="AG31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH31" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>113</v>
       </c>
       <c r="AK31" t="s">
         <v>134</v>
       </c>
-      <c r="AL31" t="s">
-        <v>446</v>
-      </c>
       <c r="AM31" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -8358,60 +8408,60 @@
         <v>175</v>
       </c>
       <c r="AT31" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="AU31" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AV31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AW31" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>449</v>
+        <v>208</v>
+      </c>
+      <c r="AX31" s="20" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F32" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="G32" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="I32" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="J32" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="K32" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="M32" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
@@ -8420,22 +8470,22 @@
         <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s">
         <v>55</v>
@@ -8444,7 +8494,7 @@
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8453,10 +8503,10 @@
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>2</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="AF32">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG32" t="s">
         <v>111</v>
@@ -8464,12 +8514,12 @@
       <c r="AH32" t="s">
         <v>117</v>
       </c>
+      <c r="AI32" t="s">
+        <v>144</v>
+      </c>
       <c r="AK32" t="s">
         <v>134</v>
       </c>
-      <c r="AL32" t="s">
-        <v>461</v>
-      </c>
       <c r="AM32" t="s">
         <v>232</v>
       </c>
@@ -8477,66 +8527,66 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AT32" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="AU32" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="AV32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX32" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F33" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="G33" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>409</v>
       </c>
       <c r="I33" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="J33" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="K33" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="M33" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8545,22 +8595,22 @@
         <v>255</v>
       </c>
       <c r="P33" t="s">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s">
         <v>55</v>
@@ -8569,7 +8619,7 @@
         <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8578,29 +8628,23 @@
         <v>2</v>
       </c>
       <c r="AC33">
-        <v>2</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="AF33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG33" t="s">
         <v>111</v>
       </c>
       <c r="AH33" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI33" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s">
         <v>134</v>
       </c>
-      <c r="AL33" t="s">
-        <v>357</v>
-      </c>
       <c r="AM33" t="s">
         <v>232</v>
       </c>
@@ -8608,66 +8652,66 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AT33" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="AU33" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="AV33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="E34">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F34" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I34" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="J34" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="K34" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="M34" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N34" t="s">
         <v>254</v>
@@ -8682,16 +8726,16 @@
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T34" t="s">
         <v>46</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
@@ -8700,105 +8744,114 @@
         <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AG34" t="s">
         <v>107</v>
       </c>
       <c r="AH34" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>155</v>
       </c>
       <c r="AK34" t="s">
         <v>150</v>
       </c>
       <c r="AL34" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="AM34" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>162</v>
       </c>
       <c r="AO34" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AR34" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="AT34" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="AU34" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="AV34" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AW34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX34" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F35" t="s">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I35" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="J35" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="K35" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="M35" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="N35" t="s">
         <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>255</v>
+        <v>441</v>
       </c>
       <c r="P35" t="s">
         <v>252</v>
@@ -8813,19 +8866,19 @@
         <v>46</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z35" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -8836,26 +8889,29 @@
       <c r="AC35">
         <v>3</v>
       </c>
-      <c r="AF35">
-        <v>4.4000000000000004</v>
+      <c r="AF35" t="s">
+        <v>304</v>
       </c>
       <c r="AG35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK35" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL35" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="AM35" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8863,21 +8919,542 @@
       <c r="AR35" t="s">
         <v>239</v>
       </c>
+      <c r="AS35" t="s">
+        <v>175</v>
+      </c>
       <c r="AT35" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="AU35" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AV35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" t="s">
+        <v>448</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36">
+        <v>2006</v>
+      </c>
+      <c r="F36" t="s">
+        <v>450</v>
+      </c>
+      <c r="G36" t="s">
+        <v>451</v>
+      </c>
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
+        <v>452</v>
+      </c>
+      <c r="J36" t="s">
+        <v>453</v>
+      </c>
+      <c r="K36" t="s">
+        <v>454</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M36" t="s">
+        <v>455</v>
+      </c>
+      <c r="N36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>458</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
+        <v>448</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E37">
+        <v>2006</v>
+      </c>
+      <c r="F37" t="s">
+        <v>450</v>
+      </c>
+      <c r="G37" t="s">
+        <v>451</v>
+      </c>
+      <c r="H37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" t="s">
+        <v>452</v>
+      </c>
+      <c r="J37" t="s">
+        <v>453</v>
+      </c>
+      <c r="K37" t="s">
+        <v>454</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M37" t="s">
+        <v>455</v>
+      </c>
+      <c r="N37" t="s">
+        <v>254</v>
+      </c>
+      <c r="O37" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s">
+        <v>55</v>
+      </c>
+      <c r="X37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>487</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>460</v>
+      </c>
+      <c r="B38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" t="s">
+        <v>461</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E38">
+        <v>2005</v>
+      </c>
+      <c r="F38" t="s">
+        <v>463</v>
+      </c>
+      <c r="G38" t="s">
+        <v>464</v>
+      </c>
+      <c r="H38" t="s">
+        <v>252</v>
+      </c>
+      <c r="I38" t="s">
+        <v>465</v>
+      </c>
+      <c r="J38" t="s">
+        <v>466</v>
+      </c>
+      <c r="K38" t="s">
+        <v>467</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="M38" t="s">
+        <v>468</v>
+      </c>
+      <c r="N38" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s">
+        <v>55</v>
+      </c>
+      <c r="X38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>472</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV38" t="s">
         <v>212</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AW38" t="s">
         <v>207</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AX38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s">
+        <v>461</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39">
+        <v>2005</v>
+      </c>
+      <c r="F39" t="s">
+        <v>463</v>
+      </c>
+      <c r="G39" t="s">
+        <v>464</v>
+      </c>
+      <c r="H39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I39" t="s">
+        <v>465</v>
+      </c>
+      <c r="J39" t="s">
+        <v>466</v>
+      </c>
+      <c r="K39" t="s">
+        <v>467</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="M39" t="s">
+        <v>468</v>
+      </c>
+      <c r="N39" t="s">
+        <v>254</v>
+      </c>
+      <c r="O39" t="s">
+        <v>255</v>
+      </c>
+      <c r="P39" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s">
+        <v>55</v>
+      </c>
+      <c r="X39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO39" t="s">
         <v>477</v>
       </c>
+      <c r="AQ39" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>472</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX40" s="20"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX41" s="20"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX42" s="20"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX43" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8921,21 +9498,25 @@
     <hyperlink ref="L23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="L24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="L25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="L7" r:id="rId29" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
-    <hyperlink ref="L32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L26" r:id="rId31" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
+    <hyperlink ref="L27" r:id="rId32" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
+    <hyperlink ref="L30" r:id="rId33" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
+    <hyperlink ref="L29" r:id="rId34" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -11170,14 +11751,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36452D8E-8DCD-4A5D-B720-AF76DB85524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C37E11-79BA-4A99-94E9-C4701CC23AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="500">
   <si>
     <t>SearchID</t>
   </si>
@@ -3291,18 +3291,12 @@
     <t>Aggregation/production artificial reefs (ARs) were first deployed in the Balearic Islands in the early 1990s. Early studies concluded that these ARs concentrated medium- and large-sized commercial fish, a fact that could lead to a risk of overfishing in the area. A decade after their deployment, the same ARs were re-examined using experimental fishing and visual censuses. Results from our study demonstrated that the Balearic ARs have not increased the risk of overfishing because fishing effort on them is moderate, trammel net efficiency on ARs is low, there are high immigration rates to the ARs, and there are natural areas with a medium-high seabed relief that hold reserve stocks that are larger than those found on the ARs. Likewise, we found that the overall condition of the ecosystem is more important for the characterization of the composition and yield of AR catches than are the eutrophic-oligotrophic conditions of the surrounding water masses. We note that the function of the aggregation/production ARs is only analogous to that of marine protected areas (MPAs) and that ARs therefore should always be managed to ensure the correct use of marine resources. Combining both intervention measures (ARs and MPAs) in the environment may synergistically reinforce their respective effects. © 2009 Rosenstiel School of Marine and Atmospheric Science of the University of Miami.</t>
   </si>
   <si>
-    <t>MDS (Multidimensional Scaling) _ SIMPER _ average</t>
-  </si>
-  <si>
     <t>Puffinus mauretanicus _ Calonectris diomedea</t>
   </si>
   <si>
     <t xml:space="preserve">Caretta caretta </t>
   </si>
   <si>
-    <t>results reveal a rather neutral, low-scope role of the Artificial Reef on the artisanal fisheries of the Balearic Islands</t>
-  </si>
-  <si>
     <t>SW4_1236</t>
   </si>
   <si>
@@ -3591,9 +3585,6 @@
     <t>Demersal fish _ large pelagic _ small pelagic</t>
   </si>
   <si>
-    <t>Trophodynamic indicators suggest a degradation pattern over time: both the mean trophic level of the community and a modified version of Kempton’s index of biodiversity decrease with time</t>
-  </si>
-  <si>
     <t>Length frequency distribution _ ANOVA</t>
   </si>
   <si>
@@ -3784,12 +3775,6 @@
   </si>
   <si>
     <t>Fishing method</t>
-  </si>
-  <si>
-    <t>Fishing mortality _ biomass _ trophic level</t>
-  </si>
-  <si>
-    <t>Aggregation on artificial reef</t>
   </si>
   <si>
     <t>Catch operations</t>
@@ -3854,6 +3839,15 @@
   </si>
   <si>
     <t>Shannon diversity and evenness indices followed a similar pattern with significant differences between sites from August (C3) to September (A1) (p &lt; 0.001), (Fig. 2a). These differences were caused by a slight increase in diversity at the reference site in the August cruise (C3), and a significant decrease in diversity at the fished site after the fishing closure in September (A1) and November (A2) (p &lt; 0.001; Table 1a). Fishery seasonal closures may benefit target species by forbidding trawling at times such as recruitment periods, but these closures are too short to influence benthic communities where the processes taking place are much slower</t>
+  </si>
+  <si>
+    <t>Fishing mortality _ biomass removal _ fishing effort</t>
+  </si>
+  <si>
+    <t>Trophodynamic indicators suggest a degradation pattern over time: both the mean trophic level of the community and a modified version of Kempton’s index of biodiversity decrease with time. In general, a high proportion of the variability in the time series data is explained by the main trophic interactions (37–53%), fishing activities (14%), and indirectly by considering the environment (6–16%), as driving factors.</t>
+  </si>
+  <si>
+    <t>Trophodynamic indicators suggest a degradation pattern over time: both the mean trophic level of the community and a modified version of Kempton’s index of biodiversity decrease with time.  In general, a high proportion of the variability in the time series data is explained by the main trophic interactions (37–53%), fishing activities (14%), and indirectly by considering the environment (6–16%), as driving factors.</t>
   </si>
 </sst>
 </file>
@@ -4016,6 +4010,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4037,7 +4032,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4324,95 +4318,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK2" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW42" sqref="AW42"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="18.08984375" customWidth="1"/>
-    <col min="24" max="25" width="32.6328125" customWidth="1"/>
-    <col min="34" max="35" width="17.6328125" customWidth="1"/>
-    <col min="36" max="36" width="18.6328125" customWidth="1"/>
-    <col min="37" max="37" width="19.08984375" customWidth="1"/>
-    <col min="38" max="38" width="17.6328125" customWidth="1"/>
-    <col min="39" max="39" width="14.36328125" customWidth="1"/>
-    <col min="40" max="41" width="15.90625" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.08984375" customWidth="1"/>
-    <col min="47" max="47" width="18.6328125" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.5703125" customWidth="1"/>
+    <col min="34" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="14" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4564,7 +4558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4599,7 +4593,7 @@
         <v>251</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4698,7 +4692,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4829,7 +4823,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -4864,7 +4858,7 @@
         <v>269</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4966,7 +4960,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -5001,7 +4995,7 @@
         <v>281</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -5106,7 +5100,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -5141,7 +5135,7 @@
         <v>281</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -5204,7 +5198,7 @@
         <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -5213,7 +5207,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5237,10 +5231,10 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -5275,7 +5269,7 @@
         <v>281</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M8" t="s">
         <v>282</v>
@@ -5338,7 +5332,7 @@
         <v>150</v>
       </c>
       <c r="AL8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM8" t="s">
         <v>232</v>
@@ -5347,7 +5341,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5374,7 +5368,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -5409,7 +5403,7 @@
         <v>281</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M9" t="s">
         <v>282</v>
@@ -5502,10 +5496,10 @@
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>281</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M10" t="s">
         <v>282</v>
@@ -5636,7 +5630,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>293</v>
       </c>
@@ -5671,7 +5665,7 @@
         <v>301</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M11" t="s">
         <v>302</v>
@@ -5731,13 +5725,13 @@
         <v>150</v>
       </c>
       <c r="AL11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM11" t="s">
         <v>159</v>
       </c>
       <c r="AO11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5752,7 +5746,7 @@
         <v>284</v>
       </c>
       <c r="AU11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AV11" t="s">
         <v>212</v>
@@ -5764,7 +5758,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>307</v>
       </c>
@@ -5799,7 +5793,7 @@
         <v>252</v>
       </c>
       <c r="L12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M12" t="s">
         <v>314</v>
@@ -5816,124 +5810,52 @@
       <c r="Q12" t="s">
         <v>21</v>
       </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA12">
-        <v>2</v>
-      </c>
-      <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>3</v>
+      <c r="R12" t="s">
+        <v>84</v>
       </c>
       <c r="AF12" t="s">
         <v>304</v>
       </c>
-      <c r="AG12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>318</v>
-      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E13">
         <v>2009</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
-      </c>
-      <c r="L13" t="s">
-        <v>343</v>
+        <v>323</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="M13" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5951,22 +5873,22 @@
         <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z13" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5999,16 +5921,19 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>325</v>
       </c>
       <c r="AQ13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR13" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AS13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AT13" t="s">
         <v>284</v>
@@ -6017,54 +5942,54 @@
         <v>260</v>
       </c>
       <c r="AV13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX13" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="J14" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="K14" t="s">
-        <v>252</v>
-      </c>
-      <c r="L14" t="s">
-        <v>343</v>
+        <v>334</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="N14" t="s">
         <v>254</v>
@@ -6079,25 +6004,25 @@
         <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T14" t="s">
         <v>46</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X14" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Z14" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6108,94 +6033,97 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AF14" t="s">
-        <v>304</v>
+      <c r="AF14" s="8">
+        <v>4.3</v>
       </c>
       <c r="AG14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH14" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI14" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
       </c>
       <c r="AK14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AM14" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO14" t="s">
-        <v>481</v>
+        <v>472</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>473</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
       </c>
       <c r="AR14" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS14" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT14" t="s">
         <v>284</v>
       </c>
       <c r="AU14" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="AV14" t="s">
         <v>206</v>
       </c>
       <c r="AW14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX14" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="E15">
         <v>2009</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="J15" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="N15" t="s">
         <v>254</v>
@@ -6210,25 +6138,25 @@
         <v>21</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="V15" t="s">
         <v>41</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6239,6 +6167,9 @@
       <c r="AC15">
         <v>3</v>
       </c>
+      <c r="AE15" t="s">
+        <v>357</v>
+      </c>
       <c r="AF15" t="s">
         <v>304</v>
       </c>
@@ -6246,13 +6177,16 @@
         <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>355</v>
       </c>
       <c r="AM15" t="s">
         <v>232</v>
@@ -6261,45 +6195,45 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s">
-        <v>481</v>
+        <v>356</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
       </c>
       <c r="AR15" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT15" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="AU15" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="AV15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX15" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="E16">
         <v>2009</v>
@@ -6308,25 +6242,25 @@
         <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="J16" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="K16" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M16" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -6341,25 +6275,25 @@
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T16" t="s">
         <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X16" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6370,6 +6304,9 @@
       <c r="AC16">
         <v>3</v>
       </c>
+      <c r="AE16" t="s">
+        <v>357</v>
+      </c>
       <c r="AF16" t="s">
         <v>304</v>
       </c>
@@ -6377,13 +6314,19 @@
         <v>109</v>
       </c>
       <c r="AH16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI16" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>113</v>
       </c>
       <c r="AK16" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>355</v>
       </c>
       <c r="AM16" t="s">
         <v>232</v>
@@ -6392,25 +6335,19 @@
         <v>160</v>
       </c>
       <c r="AO16" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="AQ16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="AT16" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="AU16" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
@@ -6419,81 +6356,84 @@
         <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="E17">
         <v>2009</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="J17" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="K17" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="M17" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="N17" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="O17" t="s">
         <v>255</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X17" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>371</v>
       </c>
       <c r="Z17" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6504,20 +6444,17 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17">
         <v>4.3</v>
       </c>
       <c r="AG17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH17" t="s">
         <v>120</v>
       </c>
       <c r="AI17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK17" t="s">
         <v>134</v>
@@ -6526,10 +6463,7 @@
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>475</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6544,66 +6478,66 @@
         <v>284</v>
       </c>
       <c r="AU17" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="AV17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AW17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E18">
         <v>2009</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H18" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="I18" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="J18" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="K18" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M18" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="N18" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="O18" t="s">
         <v>255</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="Q18" t="s">
         <v>21</v>
@@ -6612,22 +6546,25 @@
         <v>26</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X18" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>371</v>
       </c>
       <c r="Z18" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6638,14 +6575,11 @@
       <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AE18" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>304</v>
+      <c r="AF18">
+        <v>4.3</v>
       </c>
       <c r="AG18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH18" t="s">
         <v>120</v>
@@ -6653,20 +6587,17 @@
       <c r="AI18" t="s">
         <v>140</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>113</v>
+      </c>
       <c r="AK18" t="s">
         <v>134</v>
       </c>
-      <c r="AL18" t="s">
-        <v>357</v>
-      </c>
       <c r="AM18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6678,60 +6609,60 @@
         <v>175</v>
       </c>
       <c r="AT18" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="AU18" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AV18" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="E19">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="H19" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="I19" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="J19" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="K19" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>387</v>
       </c>
       <c r="M19" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="N19" t="s">
         <v>254</v>
@@ -6746,37 +6677,34 @@
         <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X19" t="s">
         <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="s">
         <v>304</v>
@@ -6785,20 +6713,14 @@
         <v>109</v>
       </c>
       <c r="AH19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s">
         <v>134</v>
       </c>
-      <c r="AL19" t="s">
-        <v>357</v>
-      </c>
       <c r="AM19" t="s">
         <v>232</v>
       </c>
@@ -6806,334 +6728,334 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
       </c>
       <c r="AR19" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>189</v>
       </c>
       <c r="AT19" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="AU19" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="AV19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW19" t="s">
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E20">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F20" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H20" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I20" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J20" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K20" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M20" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="N20" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="O20" t="s">
         <v>255</v>
       </c>
       <c r="P20" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s">
         <v>55</v>
       </c>
-      <c r="V20" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20" t="s">
-        <v>51</v>
-      </c>
       <c r="X20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>373</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s">
         <v>289</v>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AF20">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>304</v>
       </c>
       <c r="AG20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK20" t="s">
         <v>134</v>
       </c>
       <c r="AM20" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>160</v>
       </c>
       <c r="AO20" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AT20" t="s">
         <v>284</v>
       </c>
       <c r="AU20" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="AV20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW20" t="s">
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E21">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H21" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I21" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K21" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M21" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="N21" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="O21" t="s">
         <v>255</v>
       </c>
       <c r="P21" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
-      <c r="V21" t="s">
-        <v>42</v>
-      </c>
-      <c r="W21" t="s">
-        <v>51</v>
-      </c>
       <c r="X21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>373</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s">
         <v>289</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AF21">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>304</v>
       </c>
       <c r="AG21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH21" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s">
         <v>134</v>
       </c>
       <c r="AM21" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>160</v>
       </c>
       <c r="AO21" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
       </c>
       <c r="AR21" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS21" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AT21" t="s">
         <v>284</v>
       </c>
       <c r="AU21" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="AV21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW21" t="s">
         <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H22" t="s">
         <v>380</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>381</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>382</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>383</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M22" t="s">
         <v>384</v>
-      </c>
-      <c r="K22" t="s">
-        <v>385</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M22" t="s">
-        <v>386</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7184,10 +7106,10 @@
         <v>109</v>
       </c>
       <c r="AH22" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK22" t="s">
         <v>134</v>
@@ -7199,7 +7121,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7223,48 +7145,48 @@
         <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G23" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H23" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J23" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K23" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7279,123 +7201,126 @@
         <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>399</v>
       </c>
       <c r="Z23" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
         <v>3</v>
       </c>
-      <c r="AB23">
-        <v>3</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>304</v>
+      <c r="AF23">
+        <v>4.3</v>
       </c>
       <c r="AG23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH23" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI23" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>113</v>
       </c>
       <c r="AK23" t="s">
         <v>134</v>
       </c>
       <c r="AM23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
       </c>
       <c r="AR23" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS23" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT23" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="AU23" t="s">
-        <v>260</v>
+        <v>487</v>
       </c>
       <c r="AV23" t="s">
         <v>206</v>
       </c>
       <c r="AW23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>390</v>
+        <v>209</v>
+      </c>
+      <c r="AX23" s="13" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H24" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J24" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K24" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M24" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7410,123 +7335,126 @@
         <v>21</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>399</v>
       </c>
       <c r="Z24" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
         <v>3</v>
       </c>
-      <c r="AB24">
-        <v>3</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>304</v>
+      <c r="AF24">
+        <v>4.3</v>
       </c>
       <c r="AG24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH24" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI24" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>113</v>
       </c>
       <c r="AK24" t="s">
         <v>134</v>
       </c>
       <c r="AM24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
       </c>
       <c r="AR24" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS24" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AT24" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="AU24" t="s">
-        <v>260</v>
+        <v>488</v>
       </c>
       <c r="AV24" t="s">
         <v>206</v>
       </c>
       <c r="AW24" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>390</v>
+        <v>210</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G25" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H25" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J25" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M25" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7541,123 +7469,126 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X25" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>399</v>
       </c>
       <c r="Z25" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
         <v>3</v>
       </c>
-      <c r="AB25">
-        <v>3</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>304</v>
+      <c r="AF25">
+        <v>4.3</v>
       </c>
       <c r="AG25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH25" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI25" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>113</v>
       </c>
       <c r="AK25" t="s">
         <v>134</v>
       </c>
       <c r="AM25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AR25" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS25" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="AU25" t="s">
-        <v>260</v>
+        <v>489</v>
       </c>
       <c r="AV25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW25" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>390</v>
+        <v>210</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" t="s">
         <v>394</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>395</v>
       </c>
-      <c r="H26" t="s">
-        <v>335</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>396</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M26" t="s">
         <v>397</v>
-      </c>
-      <c r="K26" t="s">
-        <v>398</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M26" t="s">
-        <v>399</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7672,7 +7603,7 @@
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T26" t="s">
         <v>46</v>
@@ -7690,10 +7621,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z26" t="s">
         <v>401</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>403</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7726,7 +7657,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7738,60 +7669,60 @@
         <v>175</v>
       </c>
       <c r="AT26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AU26" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AV26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW26" t="s">
         <v>209</v>
       </c>
-      <c r="AX26" s="20" t="s">
-        <v>497</v>
+      <c r="AX26" s="13" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" t="s">
         <v>394</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>395</v>
       </c>
-      <c r="H27" t="s">
-        <v>335</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>396</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M27" t="s">
         <v>397</v>
-      </c>
-      <c r="K27" t="s">
-        <v>398</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M27" t="s">
-        <v>399</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7806,7 +7737,7 @@
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
@@ -7824,10 +7755,10 @@
         <v>113</v>
       </c>
       <c r="Y27" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z27" t="s">
         <v>401</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>403</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7860,7 +7791,7 @@
         <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -7872,60 +7803,60 @@
         <v>175</v>
       </c>
       <c r="AT27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AU27" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AV27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW27" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" s="20" t="s">
-        <v>495</v>
+        <v>209</v>
+      </c>
+      <c r="AX27" s="13" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E28">
         <v>2008</v>
       </c>
       <c r="F28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" t="s">
+        <v>333</v>
+      </c>
+      <c r="I28" t="s">
         <v>394</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>395</v>
       </c>
-      <c r="H28" t="s">
-        <v>335</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>396</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M28" t="s">
         <v>397</v>
-      </c>
-      <c r="K28" t="s">
-        <v>398</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M28" t="s">
-        <v>399</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7940,7 +7871,7 @@
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T28" t="s">
         <v>46</v>
@@ -7958,10 +7889,10 @@
         <v>113</v>
       </c>
       <c r="Y28" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z28" t="s">
         <v>401</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>403</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7994,7 +7925,7 @@
         <v>233</v>
       </c>
       <c r="AO28" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8006,60 +7937,60 @@
         <v>175</v>
       </c>
       <c r="AT28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AU28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AV28" t="s">
         <v>205</v>
       </c>
       <c r="AW28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX28" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX28" s="13" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E29">
         <v>2008</v>
       </c>
       <c r="F29" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G29" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H29" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="I29" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="J29" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K29" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M29" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
@@ -8074,28 +8005,25 @@
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X29" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8107,93 +8035,87 @@
         <v>3</v>
       </c>
       <c r="AF29">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s">
         <v>134</v>
       </c>
       <c r="AM29" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>160</v>
       </c>
       <c r="AO29" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
-      <c r="AR29" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>175</v>
-      </c>
       <c r="AT29" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>402</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>492</v>
-      </c>
-      <c r="AV29" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX29" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>391</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E30">
         <v>2008</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H30" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="I30" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="J30" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K30" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M30" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
@@ -8208,28 +8130,25 @@
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X30" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8241,93 +8160,87 @@
         <v>3</v>
       </c>
       <c r="AF30">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH30" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AK30" t="s">
         <v>134</v>
       </c>
       <c r="AM30" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>175</v>
-      </c>
       <c r="AT30" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AU30" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="AV30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AW30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX30" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="E31">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G31" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="I31" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="J31" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="K31" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="M31" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -8348,126 +8261,126 @@
         <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>401</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
       </c>
       <c r="AH31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI31" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ31" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="AK31" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>426</v>
       </c>
       <c r="AM31" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>162</v>
       </c>
       <c r="AO31" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AR31" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="AT31" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="AU31" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="AV31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW31" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="20" t="s">
-        <v>501</v>
+      <c r="AX31" t="s">
+        <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="E32">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F32" t="s">
-        <v>407</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="H32" t="s">
-        <v>409</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="K32" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="M32" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="P32" t="s">
         <v>252</v>
@@ -8476,25 +8389,25 @@
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X32" t="s">
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8505,21 +8418,21 @@
       <c r="AC32">
         <v>3</v>
       </c>
-      <c r="AF32">
-        <v>4.4000000000000004</v>
+      <c r="AF32" t="s">
+        <v>304</v>
       </c>
       <c r="AG32" t="s">
         <v>111</v>
       </c>
       <c r="AH32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s">
         <v>134</v>
       </c>
+      <c r="AL32" t="s">
+        <v>440</v>
+      </c>
       <c r="AM32" t="s">
         <v>232</v>
       </c>
@@ -8527,66 +8440,72 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
+      <c r="AR32" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>175</v>
+      </c>
       <c r="AT32" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="AU32" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="AV32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX32" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="E33">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="G33" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="H33" t="s">
-        <v>409</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
       <c r="J33" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="K33" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="M33" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8595,22 +8514,22 @@
         <v>255</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
       <c r="S33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W33" t="s">
         <v>55</v>
@@ -8619,7 +8538,7 @@
         <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8628,23 +8547,23 @@
         <v>2</v>
       </c>
       <c r="AC33">
-        <v>3</v>
-      </c>
-      <c r="AF33">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>304</v>
       </c>
       <c r="AG33" t="s">
         <v>111</v>
       </c>
       <c r="AH33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s">
         <v>134</v>
       </c>
+      <c r="AL33" t="s">
+        <v>455</v>
+      </c>
       <c r="AM33" t="s">
         <v>232</v>
       </c>
@@ -8652,66 +8571,66 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AT33" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="AU33" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="AV33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX33" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="G34" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="K34" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="M34" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="N34" t="s">
         <v>254</v>
@@ -8720,19 +8639,19 @@
         <v>255</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T34" t="s">
         <v>46</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
         <v>46</v>
@@ -8741,117 +8660,114 @@
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z34" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>304</v>
       </c>
       <c r="AG34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI34" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AJ34" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="AK34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
       </c>
       <c r="AN34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
-      <c r="AR34" t="s">
-        <v>113</v>
-      </c>
       <c r="AT34" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="AU34" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AV34" t="s">
         <v>199</v>
       </c>
       <c r="AW34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX34" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="E35">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="G35" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="J35" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="K35" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="M35" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="N35" t="s">
         <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="P35" t="s">
         <v>252</v>
@@ -8866,19 +8782,19 @@
         <v>46</v>
       </c>
       <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s">
         <v>55</v>
       </c>
-      <c r="V35" t="s">
-        <v>45</v>
-      </c>
-      <c r="W35" t="s">
-        <v>51</v>
-      </c>
       <c r="X35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -8889,29 +8805,26 @@
       <c r="AC35">
         <v>3</v>
       </c>
-      <c r="AF35" t="s">
-        <v>304</v>
+      <c r="AF35">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL35" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="AM35" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO35" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -8919,64 +8832,61 @@
       <c r="AR35" t="s">
         <v>239</v>
       </c>
-      <c r="AS35" t="s">
-        <v>175</v>
-      </c>
       <c r="AT35" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AU35" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AV35" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AW35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B36" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F36" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I36" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="J36" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="K36" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M36" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="N36" t="s">
         <v>254</v>
@@ -8985,31 +8895,31 @@
         <v>255</v>
       </c>
       <c r="P36" t="s">
-        <v>456</v>
+        <v>252</v>
       </c>
       <c r="Q36" t="s">
         <v>21</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T36" t="s">
         <v>46</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s">
         <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9018,443 +8928,62 @@
         <v>2</v>
       </c>
       <c r="AC36">
-        <v>2</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK36" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL36" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AM36" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO36" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
+      <c r="AR36" t="s">
+        <v>239</v>
+      </c>
       <c r="AT36" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="AU36" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="AV36" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AW36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX36" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>447</v>
-      </c>
-      <c r="B37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" t="s">
-        <v>448</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="E37">
-        <v>2006</v>
-      </c>
-      <c r="F37" t="s">
-        <v>450</v>
-      </c>
-      <c r="G37" t="s">
-        <v>451</v>
-      </c>
-      <c r="H37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I37" t="s">
-        <v>452</v>
-      </c>
-      <c r="J37" t="s">
-        <v>453</v>
-      </c>
-      <c r="K37" t="s">
-        <v>454</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="M37" t="s">
-        <v>455</v>
-      </c>
-      <c r="N37" t="s">
-        <v>254</v>
-      </c>
-      <c r="O37" t="s">
-        <v>255</v>
-      </c>
-      <c r="P37" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37" t="s">
-        <v>46</v>
-      </c>
-      <c r="U37" t="s">
-        <v>55</v>
-      </c>
-      <c r="V37" t="s">
-        <v>46</v>
-      </c>
-      <c r="W37" t="s">
-        <v>55</v>
-      </c>
-      <c r="X37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-      <c r="AC37">
-        <v>2</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>357</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>490</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>489</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>486</v>
-      </c>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX37" s="13"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>460</v>
-      </c>
-      <c r="B38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" t="s">
-        <v>461</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E38">
-        <v>2005</v>
-      </c>
-      <c r="F38" t="s">
-        <v>463</v>
-      </c>
-      <c r="G38" t="s">
-        <v>464</v>
-      </c>
-      <c r="H38" t="s">
-        <v>252</v>
-      </c>
-      <c r="I38" t="s">
-        <v>465</v>
-      </c>
-      <c r="J38" t="s">
-        <v>466</v>
-      </c>
-      <c r="K38" t="s">
-        <v>467</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="M38" t="s">
-        <v>468</v>
-      </c>
-      <c r="N38" t="s">
-        <v>254</v>
-      </c>
-      <c r="O38" t="s">
-        <v>255</v>
-      </c>
-      <c r="P38" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" t="s">
-        <v>24</v>
-      </c>
-      <c r="T38" t="s">
-        <v>46</v>
-      </c>
-      <c r="U38" t="s">
-        <v>58</v>
-      </c>
-      <c r="V38" t="s">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s">
-        <v>55</v>
-      </c>
-      <c r="X38" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AB38">
-        <v>2</v>
-      </c>
-      <c r="AC38">
-        <v>3</v>
-      </c>
-      <c r="AF38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>477</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>472</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>473</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>474</v>
-      </c>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX38" s="13"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>460</v>
-      </c>
-      <c r="B39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" t="s">
-        <v>461</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E39">
-        <v>2005</v>
-      </c>
-      <c r="F39" t="s">
-        <v>463</v>
-      </c>
-      <c r="G39" t="s">
-        <v>464</v>
-      </c>
-      <c r="H39" t="s">
-        <v>252</v>
-      </c>
-      <c r="I39" t="s">
-        <v>465</v>
-      </c>
-      <c r="J39" t="s">
-        <v>466</v>
-      </c>
-      <c r="K39" t="s">
-        <v>467</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="M39" t="s">
-        <v>468</v>
-      </c>
-      <c r="N39" t="s">
-        <v>254</v>
-      </c>
-      <c r="O39" t="s">
-        <v>255</v>
-      </c>
-      <c r="P39" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" t="s">
-        <v>24</v>
-      </c>
-      <c r="T39" t="s">
-        <v>46</v>
-      </c>
-      <c r="U39" t="s">
-        <v>58</v>
-      </c>
-      <c r="V39" t="s">
-        <v>41</v>
-      </c>
-      <c r="W39" t="s">
-        <v>55</v>
-      </c>
-      <c r="X39" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AB39">
-        <v>2</v>
-      </c>
-      <c r="AC39">
-        <v>3</v>
-      </c>
-      <c r="AF39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>477</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>472</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>473</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>474</v>
-      </c>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX39" s="13"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX40" s="20"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX41" s="20"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX42" s="20"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX43" s="20"/>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9474,12 +9003,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
@@ -9488,35 +9017,34 @@
     <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L7" r:id="rId29" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
-    <hyperlink ref="L36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L26" r:id="rId31" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
-    <hyperlink ref="L27" r:id="rId32" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
-    <hyperlink ref="L30" r:id="rId33" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
-    <hyperlink ref="L29" r:id="rId34" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L7" r:id="rId28" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
+    <hyperlink ref="L33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L23" r:id="rId30" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
+    <hyperlink ref="L24" r:id="rId31" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
+    <hyperlink ref="L27" r:id="rId32" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
+    <hyperlink ref="L26" r:id="rId33" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -9624,75 +9152,75 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.08984375" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="26.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -9700,7 +9228,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -9852,7 +9380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -9909,7 +9437,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -9966,7 +9494,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -10022,7 +9550,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -10067,7 +9595,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -10109,7 +9637,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -10147,7 +9675,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -10182,7 +9710,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -10214,7 +9742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -10249,7 +9777,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -10281,7 +9809,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -10316,7 +9844,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -10345,7 +9873,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -10374,7 +9902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -10394,7 +9922,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -10402,22 +9930,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -10452,7 +9980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -10478,7 +10006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -10501,7 +10029,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -10512,7 +10040,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -10523,7 +10051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -10531,12 +10059,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -10559,7 +10087,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -10585,7 +10113,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -10611,7 +10139,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -10631,7 +10159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -10646,7 +10174,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -10660,7 +10188,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -10668,10 +10196,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10699,85 +10227,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.90625" customWidth="1"/>
-    <col min="19" max="19" width="17.6328125" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
-    <col min="21" max="21" width="17.6328125" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" customWidth="1"/>
-    <col min="26" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.36328125" customWidth="1"/>
-    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -10878,7 +10406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10944,7 +10472,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -10995,7 +10523,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -11049,7 +10577,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -11091,7 +10619,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -11136,7 +10664,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -11174,7 +10702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -11212,7 +10740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -11247,7 +10775,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -11279,7 +10807,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -11311,7 +10839,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -11340,7 +10868,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -11363,7 +10891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -11389,7 +10917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -11406,7 +10934,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -11417,7 +10945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -11431,7 +10959,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -11445,7 +10973,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -11456,7 +10984,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -11470,7 +10998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -11481,7 +11009,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -11492,7 +11020,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -11500,7 +11028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -11508,7 +11036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -11516,7 +11044,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -11530,7 +11058,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -11541,7 +11069,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -11552,7 +11080,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -11563,7 +11091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -11571,7 +11099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -11579,12 +11107,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -11604,6 +11132,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11717,22 +11254,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11748,25 +11284,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C37E11-79BA-4A99-94E9-C4701CC23AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95637E84-97CC-48A2-92E9-B1D1E549F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$33</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="499">
   <si>
     <t>SearchID</t>
   </si>
@@ -3216,15 +3216,9 @@
     <t>Average</t>
   </si>
   <si>
-    <t>by-catch rate</t>
-  </si>
-  <si>
     <t>sighting rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantification of by catch rate </t>
-  </si>
-  <si>
     <t>SW4_1190</t>
   </si>
   <si>
@@ -3778,12 +3772,6 @@
   </si>
   <si>
     <t>Catch operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The annual number of by-caught turtles was 863 (CV = 0.15), with 99% released alive. </t>
-  </si>
-  <si>
-    <t>Quantification of by catch rate.  Thintail threshers (Alopias vulpinus), piked dogfish (Squalus acanthias) and smooth-hounds (Mustelus mustelus), which are both commercial and vulnerable to overfishing, were taken in large numbers.</t>
   </si>
   <si>
     <t xml:space="preserve">Recruitment </t>
@@ -3848,6 +3836,15 @@
   </si>
   <si>
     <t>Trophodynamic indicators suggest a degradation pattern over time: both the mean trophic level of the community and a modified version of Kempton’s index of biodiversity decrease with time.  In general, a high proportion of the variability in the time series data is explained by the main trophic interactions (37–53%), fishing activities (14%), and indirectly by considering the environment (6–16%), as driving factors.</t>
+  </si>
+  <si>
+    <t>Dolphins were frequently sighted during observations, and often interacting with fishing operations, yet bycatch rates were low. These dolphins have probably developed the capacity to take advantage of this fishery while minimising their risk of entanglement. However, some degree of lethal interaction was observed.</t>
+  </si>
+  <si>
+    <t>bycatch survival</t>
+  </si>
+  <si>
+    <t>The annual number of by-caught turtles was 863 (CV = 0.15), with 99% released alive, and 7.5% potentially debilitated (those released after recovering from a comatose state). It is fundamental to assess whether the stress caused by nonlethal capture followed by release can have a negative impact at the population level.</t>
   </si>
 </sst>
 </file>
@@ -4318,29 +4315,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX40"/>
+  <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU38" sqref="AU38"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.5703125" customWidth="1"/>
-    <col min="34" max="35" width="17.5703125" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.54296875" customWidth="1"/>
+    <col min="34" max="35" width="17.54296875" customWidth="1"/>
+    <col min="36" max="36" width="18.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.54296875" customWidth="1"/>
+    <col min="39" max="39" width="14.453125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -4406,7 +4403,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4558,7 +4555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>251</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4692,7 +4689,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -4727,7 +4724,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4823,7 +4820,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>269</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4960,7 +4957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>281</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -5088,7 +5085,7 @@
         <v>285</v>
       </c>
       <c r="AU6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
@@ -5097,10 +5094,10 @@
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>292</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -5135,7 +5132,7 @@
         <v>281</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -5198,7 +5195,7 @@
         <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -5207,7 +5204,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5222,7 +5219,7 @@
         <v>285</v>
       </c>
       <c r="AU7" t="s">
-        <v>290</v>
+        <v>497</v>
       </c>
       <c r="AV7" t="s">
         <v>237</v>
@@ -5231,48 +5228,48 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>2010</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="K8" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M8" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
         <v>254</v>
@@ -5281,31 +5278,31 @@
         <v>255</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
         <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X8" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Z8" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -5314,99 +5311,93 @@
         <v>2</v>
       </c>
       <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="AK8" t="s">
         <v>150</v>
       </c>
       <c r="AL8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AM8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AO8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
       </c>
       <c r="AR8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AU8" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="AV8" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AW8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX8" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="E9">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K9" t="s">
-        <v>281</v>
-      </c>
-      <c r="L9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" t="s">
         <v>339</v>
       </c>
       <c r="M9" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="N9" t="s">
         <v>254</v>
@@ -5420,124 +5411,52 @@
       <c r="Q9" t="s">
         <v>21</v>
       </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA9">
-        <v>2</v>
-      </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
+      <c r="R9" t="s">
+        <v>84</v>
       </c>
       <c r="AF9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>290</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>479</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="E10">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="I10" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K10" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M10" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="N10" t="s">
         <v>254</v>
@@ -5552,25 +5471,25 @@
         <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X10" t="s">
         <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5579,96 +5498,99 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="AG10" t="s">
         <v>109</v>
       </c>
       <c r="AH10" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AM10" t="s">
         <v>232</v>
       </c>
       <c r="AN10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="s">
-        <v>259</v>
+        <v>474</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>323</v>
       </c>
       <c r="AQ10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AR10" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="AS10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AT10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AU10" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AV10" t="s">
         <v>199</v>
       </c>
       <c r="AW10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX10" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="E11">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -5677,31 +5599,31 @@
         <v>255</v>
       </c>
       <c r="P11" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
         <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Z11" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5712,26 +5634,32 @@
       <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AF11">
-        <v>4.4000000000000004</v>
+      <c r="AF11" s="8">
+        <v>4.3</v>
       </c>
       <c r="AG11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>113</v>
       </c>
       <c r="AK11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="AM11" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO11" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>471</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -5746,57 +5674,57 @@
         <v>284</v>
       </c>
       <c r="AU11" t="s">
-        <v>475</v>
+        <v>342</v>
       </c>
       <c r="AV11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AW11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="E12">
         <v>2009</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J12" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>252</v>
-      </c>
-      <c r="L12" t="s">
-        <v>341</v>
+        <v>351</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5810,25 +5738,103 @@
       <c r="Q12" t="s">
         <v>21</v>
       </c>
-      <c r="R12" t="s">
-        <v>84</v>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>355</v>
       </c>
       <c r="AF12" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="E13">
         <v>2009</v>
@@ -5837,25 +5843,25 @@
         <v>246</v>
       </c>
       <c r="G13" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="J13" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="K13" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="M13" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5870,25 +5876,25 @@
         <v>21</v>
       </c>
       <c r="S13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T13" t="s">
         <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X13" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z13" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5899,20 +5905,29 @@
       <c r="AC13">
         <v>3</v>
       </c>
+      <c r="AE13" t="s">
+        <v>355</v>
+      </c>
       <c r="AF13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG13" t="s">
         <v>109</v>
       </c>
       <c r="AH13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>113</v>
       </c>
       <c r="AK13" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>353</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5921,25 +5936,19 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>476</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="AQ13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="AT13" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="AU13" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
@@ -5948,81 +5957,84 @@
         <v>207</v>
       </c>
       <c r="AX13" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="K14" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="M14" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="N14" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="O14" t="s">
         <v>255</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X14" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>369</v>
       </c>
       <c r="Z14" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6033,20 +6045,17 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AF14">
         <v>4.3</v>
       </c>
       <c r="AG14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH14" t="s">
         <v>120</v>
       </c>
       <c r="AI14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s">
         <v>134</v>
@@ -6055,10 +6064,7 @@
         <v>233</v>
       </c>
       <c r="AO14" t="s">
-        <v>472</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6073,66 +6079,66 @@
         <v>284</v>
       </c>
       <c r="AU14" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="AV14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AW14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX14" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E15">
         <v>2009</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="G15" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J15" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="K15" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M15" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="O15" t="s">
         <v>255</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
@@ -6141,22 +6147,25 @@
         <v>26</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X15" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>369</v>
       </c>
       <c r="Z15" t="s">
-        <v>413</v>
+        <v>289</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6167,14 +6176,11 @@
       <c r="AC15">
         <v>3</v>
       </c>
-      <c r="AE15" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>304</v>
+      <c r="AF15">
+        <v>4.3</v>
       </c>
       <c r="AG15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH15" t="s">
         <v>120</v>
@@ -6182,20 +6188,17 @@
       <c r="AI15" t="s">
         <v>140</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>113</v>
+      </c>
       <c r="AK15" t="s">
         <v>134</v>
       </c>
-      <c r="AL15" t="s">
-        <v>355</v>
-      </c>
       <c r="AM15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO15" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6207,60 +6210,60 @@
         <v>175</v>
       </c>
       <c r="AT15" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="AU15" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AV15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX15" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="E16">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="G16" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="H16" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="I16" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="J16" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="K16" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>385</v>
       </c>
       <c r="M16" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -6275,59 +6278,50 @@
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X16" t="s">
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>413</v>
+        <v>289</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16">
-        <v>3</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG16" t="s">
         <v>109</v>
       </c>
       <c r="AH16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s">
         <v>134</v>
       </c>
-      <c r="AL16" t="s">
-        <v>355</v>
-      </c>
       <c r="AM16" t="s">
         <v>232</v>
       </c>
@@ -6335,334 +6329,334 @@
         <v>160</v>
       </c>
       <c r="AO16" t="s">
-        <v>356</v>
+        <v>470</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>189</v>
       </c>
       <c r="AT16" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="AU16" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="AV16" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW16" t="s">
         <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E17">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F17" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J17" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="K17" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M17" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="N17" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="O17" t="s">
         <v>255</v>
       </c>
       <c r="P17" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
       </c>
-      <c r="V17" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17" t="s">
-        <v>51</v>
-      </c>
       <c r="X17" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="Z17" t="s">
         <v>289</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AF17">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>302</v>
       </c>
       <c r="AG17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK17" t="s">
         <v>134</v>
       </c>
       <c r="AM17" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AT17" t="s">
         <v>284</v>
       </c>
       <c r="AU17" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="AV17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW17" t="s">
         <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E18">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G18" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H18" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J18" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="K18" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M18" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="N18" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="O18" t="s">
         <v>255</v>
       </c>
       <c r="P18" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="Q18" t="s">
         <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s">
         <v>55</v>
       </c>
-      <c r="V18" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" t="s">
-        <v>51</v>
-      </c>
       <c r="X18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="Z18" t="s">
         <v>289</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>3</v>
-      </c>
-      <c r="AF18">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>302</v>
       </c>
       <c r="AG18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH18" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s">
         <v>134</v>
       </c>
       <c r="AM18" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
       </c>
       <c r="AR18" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS18" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AT18" t="s">
         <v>284</v>
       </c>
       <c r="AU18" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="AV18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW18" t="s">
         <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E19">
         <v>2008</v>
       </c>
       <c r="F19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" t="s">
         <v>378</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>379</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>380</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>381</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M19" t="s">
         <v>382</v>
-      </c>
-      <c r="K19" t="s">
-        <v>383</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="M19" t="s">
-        <v>384</v>
       </c>
       <c r="N19" t="s">
         <v>254</v>
@@ -6707,16 +6701,16 @@
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG19" t="s">
         <v>109</v>
       </c>
       <c r="AH19" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AI19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK19" t="s">
         <v>134</v>
@@ -6728,7 +6722,7 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6752,48 +6746,48 @@
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E20">
         <v>2008</v>
       </c>
       <c r="F20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="J20" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K20" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M20" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N20" t="s">
         <v>254</v>
@@ -6808,123 +6802,126 @@
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>397</v>
       </c>
       <c r="Z20" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
         <v>3</v>
       </c>
-      <c r="AB20">
-        <v>3</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>304</v>
+      <c r="AF20">
+        <v>4.3</v>
       </c>
       <c r="AG20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH20" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>113</v>
       </c>
       <c r="AK20" t="s">
         <v>134</v>
       </c>
       <c r="AM20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT20" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="AU20" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="AV20" t="s">
         <v>206</v>
       </c>
       <c r="AW20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>388</v>
+        <v>209</v>
+      </c>
+      <c r="AX20" s="13" t="s">
+        <v>488</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E21">
         <v>2008</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H21" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="J21" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K21" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M21" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N21" t="s">
         <v>254</v>
@@ -6939,123 +6936,126 @@
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>397</v>
       </c>
       <c r="Z21" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
         <v>3</v>
       </c>
-      <c r="AB21">
-        <v>3</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>304</v>
+      <c r="AF21">
+        <v>4.3</v>
       </c>
       <c r="AG21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH21" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI21" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>113</v>
       </c>
       <c r="AK21" t="s">
         <v>134</v>
       </c>
       <c r="AM21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
       </c>
       <c r="AR21" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AT21" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="AU21" t="s">
-        <v>260</v>
+        <v>484</v>
       </c>
       <c r="AV21" t="s">
         <v>206</v>
       </c>
       <c r="AW21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>388</v>
+        <v>210</v>
+      </c>
+      <c r="AX21" s="13" t="s">
+        <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="J22" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K22" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M22" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7070,123 +7070,126 @@
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>397</v>
       </c>
       <c r="Z22" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
         <v>3</v>
       </c>
-      <c r="AB22">
-        <v>3</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>304</v>
+      <c r="AF22">
+        <v>4.3</v>
       </c>
       <c r="AG22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH22" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>113</v>
       </c>
       <c r="AK22" t="s">
         <v>134</v>
       </c>
       <c r="AM22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
       </c>
       <c r="AR22" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS22" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT22" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="AU22" t="s">
-        <v>260</v>
+        <v>485</v>
       </c>
       <c r="AV22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW22" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>388</v>
+        <v>210</v>
+      </c>
+      <c r="AX22" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23" t="s">
+        <v>331</v>
+      </c>
+      <c r="I23" t="s">
         <v>392</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>393</v>
       </c>
-      <c r="H23" t="s">
-        <v>333</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>394</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M23" t="s">
         <v>395</v>
-      </c>
-      <c r="K23" t="s">
-        <v>396</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M23" t="s">
-        <v>397</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7201,7 +7204,7 @@
         <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T23" t="s">
         <v>46</v>
@@ -7219,10 +7222,10 @@
         <v>113</v>
       </c>
       <c r="Y23" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z23" t="s">
         <v>399</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>401</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7255,7 +7258,7 @@
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7267,60 +7270,60 @@
         <v>175</v>
       </c>
       <c r="AT23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AU23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AV23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW23" t="s">
         <v>209</v>
       </c>
       <c r="AX23" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" t="s">
         <v>392</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>393</v>
       </c>
-      <c r="H24" t="s">
-        <v>333</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>394</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M24" t="s">
         <v>395</v>
-      </c>
-      <c r="K24" t="s">
-        <v>396</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M24" t="s">
-        <v>397</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7335,7 +7338,7 @@
         <v>21</v>
       </c>
       <c r="S24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T24" t="s">
         <v>46</v>
@@ -7353,10 +7356,10 @@
         <v>113</v>
       </c>
       <c r="Y24" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z24" t="s">
         <v>399</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>401</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7389,7 +7392,7 @@
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7401,60 +7404,60 @@
         <v>175</v>
       </c>
       <c r="AT24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AU24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AV24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX24" s="13" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25" t="s">
         <v>392</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>393</v>
       </c>
-      <c r="H25" t="s">
-        <v>333</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>394</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M25" t="s">
         <v>395</v>
-      </c>
-      <c r="K25" t="s">
-        <v>396</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M25" t="s">
-        <v>397</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7469,7 +7472,7 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
@@ -7487,10 +7490,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z25" t="s">
         <v>399</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>401</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7523,7 +7526,7 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7535,7 +7538,7 @@
         <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AU25" t="s">
         <v>489</v>
@@ -7544,51 +7547,51 @@
         <v>205</v>
       </c>
       <c r="AW25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX25" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G26" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="I26" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="J26" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K26" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M26" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7603,28 +7606,25 @@
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X26" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>399</v>
+        <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7636,93 +7636,87 @@
         <v>3</v>
       </c>
       <c r="AF26">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK26" t="s">
         <v>134</v>
       </c>
       <c r="AM26" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>160</v>
       </c>
       <c r="AO26" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
-      <c r="AR26" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>175</v>
-      </c>
       <c r="AT26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>400</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX26" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>389</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="I27" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="J27" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K27" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M27" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7737,28 +7731,25 @@
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>399</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7770,93 +7761,87 @@
         <v>3</v>
       </c>
       <c r="AF27">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH27" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AK27" t="s">
         <v>134</v>
       </c>
       <c r="AM27" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
-      <c r="AR27" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>175</v>
-      </c>
       <c r="AT27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AU27" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="AV27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AW27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX27" s="13" t="s">
-        <v>494</v>
+        <v>208</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G28" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="H28" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="J28" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="K28" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="M28" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7877,126 +7862,126 @@
         <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>399</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG28" t="s">
         <v>107</v>
       </c>
       <c r="AH28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI28" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AJ28" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="AK28" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>424</v>
       </c>
       <c r="AM28" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>162</v>
       </c>
       <c r="AO28" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AR28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="AT28" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="AU28" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="AV28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
-      <c r="AX28" s="13" t="s">
-        <v>496</v>
+      <c r="AX28" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E29">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F29" t="s">
-        <v>405</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="H29" t="s">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="I29" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="J29" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="K29" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="M29" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>255</v>
+        <v>436</v>
       </c>
       <c r="P29" t="s">
         <v>252</v>
@@ -8005,25 +7990,25 @@
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X29" t="s">
         <v>69</v>
       </c>
       <c r="Z29" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8034,21 +8019,21 @@
       <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AF29">
-        <v>4.4000000000000004</v>
+      <c r="AF29" t="s">
+        <v>302</v>
       </c>
       <c r="AG29" t="s">
         <v>111</v>
       </c>
       <c r="AH29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AK29" t="s">
         <v>134</v>
       </c>
+      <c r="AL29" t="s">
+        <v>438</v>
+      </c>
       <c r="AM29" t="s">
         <v>232</v>
       </c>
@@ -8056,66 +8041,72 @@
         <v>160</v>
       </c>
       <c r="AO29" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
+      <c r="AR29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>175</v>
+      </c>
       <c r="AT29" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="AU29" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="AV29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX29" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="E30">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="G30" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="J30" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="K30" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="M30" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
@@ -8124,22 +8115,22 @@
         <v>255</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W30" t="s">
         <v>55</v>
@@ -8148,7 +8139,7 @@
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8157,23 +8148,23 @@
         <v>2</v>
       </c>
       <c r="AC30">
-        <v>3</v>
-      </c>
-      <c r="AF30">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>302</v>
       </c>
       <c r="AG30" t="s">
         <v>111</v>
       </c>
       <c r="AH30" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s">
         <v>134</v>
       </c>
+      <c r="AL30" t="s">
+        <v>453</v>
+      </c>
       <c r="AM30" t="s">
         <v>232</v>
       </c>
@@ -8181,66 +8172,66 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AT30" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="AU30" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="AV30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX30" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E31">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>445</v>
       </c>
       <c r="G31" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="J31" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="K31" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="M31" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -8249,19 +8240,19 @@
         <v>255</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T31" t="s">
         <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
         <v>46</v>
@@ -8270,117 +8261,114 @@
         <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>302</v>
       </c>
       <c r="AG31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AI31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="AK31" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL31" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
       </c>
       <c r="AN31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
-      <c r="AR31" t="s">
-        <v>113</v>
-      </c>
       <c r="AT31" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="AU31" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
       </c>
       <c r="AW31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX31" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>458</v>
       </c>
       <c r="G32" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="J32" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="K32" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="M32" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
       </c>
       <c r="O32" t="s">
-        <v>438</v>
+        <v>255</v>
       </c>
       <c r="P32" t="s">
         <v>252</v>
@@ -8395,19 +8383,19 @@
         <v>46</v>
       </c>
       <c r="U32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s">
         <v>55</v>
       </c>
-      <c r="V32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W32" t="s">
-        <v>51</v>
-      </c>
       <c r="X32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8418,29 +8406,26 @@
       <c r="AC32">
         <v>3</v>
       </c>
-      <c r="AF32" t="s">
-        <v>304</v>
+      <c r="AF32">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK32" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL32" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="AM32" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO32" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -8448,64 +8433,61 @@
       <c r="AR32" t="s">
         <v>239</v>
       </c>
-      <c r="AS32" t="s">
-        <v>175</v>
-      </c>
       <c r="AT32" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="AU32" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AV32" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AW32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX32" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F33" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G33" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="J33" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K33" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M33" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8514,31 +8496,31 @@
         <v>255</v>
       </c>
       <c r="P33" t="s">
-        <v>453</v>
+        <v>252</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T33" t="s">
         <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s">
         <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8547,443 +8529,62 @@
         <v>2</v>
       </c>
       <c r="AC33">
-        <v>2</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>304</v>
+        <v>3</v>
+      </c>
+      <c r="AF33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK33" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL33" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AM33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
+      <c r="AR33" t="s">
+        <v>239</v>
+      </c>
       <c r="AT33" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AU33" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AV33" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AW33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX33" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>444</v>
-      </c>
-      <c r="B34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34" t="s">
-        <v>445</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="E34">
-        <v>2006</v>
-      </c>
-      <c r="F34" t="s">
-        <v>447</v>
-      </c>
-      <c r="G34" t="s">
-        <v>448</v>
-      </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>449</v>
-      </c>
-      <c r="J34" t="s">
-        <v>450</v>
-      </c>
-      <c r="K34" t="s">
-        <v>451</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="M34" t="s">
-        <v>452</v>
-      </c>
-      <c r="N34" t="s">
-        <v>254</v>
-      </c>
-      <c r="O34" t="s">
-        <v>255</v>
-      </c>
-      <c r="P34" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" t="s">
-        <v>46</v>
-      </c>
-      <c r="U34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V34" t="s">
-        <v>46</v>
-      </c>
-      <c r="W34" t="s">
-        <v>55</v>
-      </c>
-      <c r="X34" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA34">
-        <v>2</v>
-      </c>
-      <c r="AB34">
-        <v>2</v>
-      </c>
-      <c r="AC34">
-        <v>2</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>485</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>484</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>482</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>481</v>
-      </c>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX34" s="13"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>457</v>
-      </c>
-      <c r="B35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" t="s">
-        <v>458</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E35">
-        <v>2005</v>
-      </c>
-      <c r="F35" t="s">
-        <v>460</v>
-      </c>
-      <c r="G35" t="s">
-        <v>461</v>
-      </c>
-      <c r="H35" t="s">
-        <v>252</v>
-      </c>
-      <c r="I35" t="s">
-        <v>462</v>
-      </c>
-      <c r="J35" t="s">
-        <v>463</v>
-      </c>
-      <c r="K35" t="s">
-        <v>464</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="M35" t="s">
-        <v>465</v>
-      </c>
-      <c r="N35" t="s">
-        <v>254</v>
-      </c>
-      <c r="O35" t="s">
-        <v>255</v>
-      </c>
-      <c r="P35" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U35" t="s">
-        <v>58</v>
-      </c>
-      <c r="V35" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" t="s">
-        <v>55</v>
-      </c>
-      <c r="X35" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AB35">
-        <v>2</v>
-      </c>
-      <c r="AC35">
-        <v>3</v>
-      </c>
-      <c r="AF35">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>470</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>471</v>
-      </c>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX35" s="13"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>457</v>
-      </c>
-      <c r="B36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" t="s">
-        <v>458</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E36">
-        <v>2005</v>
-      </c>
-      <c r="F36" t="s">
-        <v>460</v>
-      </c>
-      <c r="G36" t="s">
-        <v>461</v>
-      </c>
-      <c r="H36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I36" t="s">
-        <v>462</v>
-      </c>
-      <c r="J36" t="s">
-        <v>463</v>
-      </c>
-      <c r="K36" t="s">
-        <v>464</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="M36" t="s">
-        <v>465</v>
-      </c>
-      <c r="N36" t="s">
-        <v>254</v>
-      </c>
-      <c r="O36" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T36" t="s">
-        <v>46</v>
-      </c>
-      <c r="U36" t="s">
-        <v>58</v>
-      </c>
-      <c r="V36" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" t="s">
-        <v>55</v>
-      </c>
-      <c r="X36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <v>2</v>
-      </c>
-      <c r="AC36">
-        <v>3</v>
-      </c>
-      <c r="AF36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>470</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>471</v>
-      </c>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX36" s="13"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AX37" s="13"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AX38" s="13"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AX39" s="13"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AX40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8996,7 +8597,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q10 P11:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P1048576 Q3:Q7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -9008,43 +8609,40 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L7" r:id="rId28" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
-    <hyperlink ref="L33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L23" r:id="rId30" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
-    <hyperlink ref="L24" r:id="rId31" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
-    <hyperlink ref="L27" r:id="rId32" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
-    <hyperlink ref="L26" r:id="rId33" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L7" r:id="rId25" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
+    <hyperlink ref="L30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L20" r:id="rId27" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
+    <hyperlink ref="L21" r:id="rId28" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
+    <hyperlink ref="L24" r:id="rId29" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
+    <hyperlink ref="L23" r:id="rId30" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -9052,7 +8650,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R5 R11:R1048576</xm:sqref>
+          <xm:sqref>R3:R5 R8:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -9152,17 +8750,17 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -9228,7 +8826,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -9380,7 +8978,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -9437,7 +9035,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -9494,7 +9092,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -9550,7 +9148,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -9595,7 +9193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -9637,7 +9235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -9675,7 +9273,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -9710,7 +9308,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -9742,7 +9340,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -9777,7 +9375,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -9809,7 +9407,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -9844,7 +9442,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -9873,7 +9471,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -9902,7 +9500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -9922,7 +9520,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -9930,22 +9528,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -9980,7 +9578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -10006,7 +9604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -10029,7 +9627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -10040,7 +9638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -10051,7 +9649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -10059,12 +9657,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -10087,7 +9685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -10113,7 +9711,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -10139,7 +9737,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -10159,7 +9757,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -10174,7 +9772,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -10188,7 +9786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -10196,10 +9794,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -10227,38 +9825,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.54296875" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" customWidth="1"/>
+    <col min="26" max="26" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" customWidth="1"/>
-    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -10305,7 +9903,7 @@
       <c r="AF1" s="15"/>
       <c r="AG1" s="15"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -10406,7 +10004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -10472,7 +10070,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -10523,7 +10121,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10577,7 +10175,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -10619,7 +10217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10664,7 +10262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -10702,7 +10300,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -10740,7 +10338,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -10775,7 +10373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -10807,7 +10405,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -10839,7 +10437,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -10868,7 +10466,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -10891,7 +10489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -10917,7 +10515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -10934,7 +10532,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -10945,7 +10543,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -10959,7 +10557,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -10973,7 +10571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -10984,7 +10582,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -10998,7 +10596,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -11009,7 +10607,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -11020,7 +10618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -11028,7 +10626,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -11036,7 +10634,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -11044,7 +10642,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -11058,7 +10656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -11069,7 +10667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -11080,7 +10678,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -11091,7 +10689,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -11099,7 +10697,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -11107,12 +10705,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -11132,17 +10730,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -11255,21 +10850,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B8F609-7B50-45AD-A493-34F28D6B4804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11285,16 +10890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95637E84-97CC-48A2-92E9-B1D1E549F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1051602-0E16-4E3B-B147-AB637DB3EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$34</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="501">
   <si>
     <t>SearchID</t>
   </si>
@@ -3315,15 +3315,9 @@
     <t>Managing bait type might constitute a simple tool to influence the amount and composition of the fish catch in marine recreational fishing. To this end, the relationships between two types of natural bait and catch per unit effort (CPUE), yield per unit effort, species composition of the catch, fish size, and hooking injury were evaluated in a mixed-species recreational boat fishery at the Balearic Islands (Western Mediterranean, Spain). Two hundred and twenty experimental angling sessions were conducted with two of the most common natural baits used by local anglers, pieces of a marine worm (Perinereis aibuhitensis) and pieces of shrimp (Penaeus vannamei), baited on a standard J-type hook. The average CPUE of hooks baited with worms was significantly larger than the CPUE of shrimp as bait. However, the average yield per unit effort was similar between both bait types because shrimp selected for significantly larger fish. Between-bait differences in species composition were statistically significant. In addition, the use of shrimp caused a significant decrease in the frequency of deep-hooking. As deep-hooking and associated injuries are related to post-release mortality in most fish species, the use of shrimp likely enhances the survival rates of released fish. We recommend the increased use of shrimp as opposed to worms in mixed-species coastal marine recreational fisheries to reduce the catch of undersized fish and the incidences of deep-hooking. Managing bait type might complement standard harvest regulations and facilitate more sustainable exploitation rates. © 2009 Elsevier B.V. All rights reserved.</t>
   </si>
   <si>
-    <t>bait type</t>
-  </si>
-  <si>
     <t>univariate analyses _ multivariate analyses _ logistic regression _ Mixed-effects linear models _ PCA</t>
   </si>
   <si>
-    <t>study suggests that the appropriate choice of type of natural bait (shrimp) could constitute a simple management measure completing standard harvest regulations</t>
-  </si>
-  <si>
     <t>SW4_1258</t>
   </si>
   <si>
@@ -3766,9 +3760,6 @@
   </si>
   <si>
     <t>feeding activity</t>
-  </si>
-  <si>
-    <t>Fishing method</t>
   </si>
   <si>
     <t>Catch operations</t>
@@ -3845,6 +3836,21 @@
   </si>
   <si>
     <t>The annual number of by-caught turtles was 863 (CV = 0.15), with 99% released alive, and 7.5% potentially debilitated (those released after recovering from a comatose state). It is fundamental to assess whether the stress caused by nonlethal capture followed by release can have a negative impact at the population level.</t>
+  </si>
+  <si>
+    <t>shrimp bait vs. worm bait</t>
+  </si>
+  <si>
+    <t>Frequency of deep-hooking</t>
+  </si>
+  <si>
+    <t>the use of shrimp caused a significant decrease in the frequency of deep-hooking</t>
+  </si>
+  <si>
+    <t>Size of caught fish</t>
+  </si>
+  <si>
+    <t>Shrimp selected for significantly larger fish. We recommend the increased use of shrimp as opposed to worms in mixed species coastal marine recreational fisheries to reduce the catch of undersized fish.</t>
   </si>
 </sst>
 </file>
@@ -3985,7 +3991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3999,15 +4005,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4315,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX37"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX35" sqref="AX35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4338,70 +4342,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="15" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4565,7 +4569,7 @@
       <c r="C3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E3">
@@ -4589,8 +4593,8 @@
       <c r="K3" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>335</v>
+      <c r="L3" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4699,7 +4703,7 @@
       <c r="C4" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E4">
@@ -4723,8 +4727,8 @@
       <c r="K4" t="s">
         <v>251</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>335</v>
+      <c r="L4" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4830,7 +4834,7 @@
       <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>264</v>
       </c>
       <c r="E5">
@@ -4854,8 +4858,8 @@
       <c r="K5" t="s">
         <v>269</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>336</v>
+      <c r="L5" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4967,7 +4971,7 @@
       <c r="C6" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>276</v>
       </c>
       <c r="E6">
@@ -4991,8 +4995,8 @@
       <c r="K6" t="s">
         <v>281</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>337</v>
+      <c r="L6" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="M6" t="s">
         <v>282</v>
@@ -5094,7 +5098,7 @@
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -5107,7 +5111,7 @@
       <c r="C7" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>276</v>
       </c>
       <c r="E7">
@@ -5131,8 +5135,8 @@
       <c r="K7" t="s">
         <v>281</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>337</v>
+      <c r="L7" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -5204,7 +5208,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5219,7 +5223,7 @@
         <v>285</v>
       </c>
       <c r="AU7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AV7" t="s">
         <v>237</v>
@@ -5228,7 +5232,7 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -5241,7 +5245,7 @@
       <c r="C8" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>293</v>
       </c>
       <c r="E8">
@@ -5265,8 +5269,8 @@
       <c r="K8" t="s">
         <v>299</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>338</v>
+      <c r="L8" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="M8" t="s">
         <v>300</v>
@@ -5332,7 +5336,7 @@
         <v>159</v>
       </c>
       <c r="AO8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5347,7 +5351,7 @@
         <v>284</v>
       </c>
       <c r="AU8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AV8" t="s">
         <v>212</v>
@@ -5369,7 +5373,7 @@
       <c r="C9" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>307</v>
       </c>
       <c r="E9">
@@ -5394,7 +5398,7 @@
         <v>252</v>
       </c>
       <c r="L9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M9" t="s">
         <v>312</v>
@@ -5428,7 +5432,7 @@
       <c r="C10" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>317</v>
       </c>
       <c r="E10">
@@ -5452,8 +5456,8 @@
       <c r="K10" t="s">
         <v>321</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>340</v>
+      <c r="L10" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="M10" t="s">
         <v>322</v>
@@ -5489,7 +5493,7 @@
         <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5522,10 +5526,7 @@
         <v>160</v>
       </c>
       <c r="AO10" t="s">
-        <v>474</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>323</v>
+        <v>496</v>
       </c>
       <c r="AQ10" t="s">
         <v>165</v>
@@ -5537,60 +5538,60 @@
         <v>196</v>
       </c>
       <c r="AT10" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="AU10" t="s">
-        <v>260</v>
+        <v>499</v>
       </c>
       <c r="AV10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW10" t="s">
         <v>207</v>
       </c>
       <c r="AX10" t="s">
-        <v>325</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>328</v>
+        <v>316</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E11">
         <v>2009</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="K11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>334</v>
+        <v>321</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="M11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -5605,25 +5606,25 @@
         <v>21</v>
       </c>
       <c r="S11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X11" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5634,97 +5635,94 @@
       <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AF11" s="8">
-        <v>4.3</v>
+      <c r="AF11" t="s">
+        <v>302</v>
       </c>
       <c r="AG11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV11" t="s">
         <v>113</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>470</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>471</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>206</v>
       </c>
       <c r="AW11" t="s">
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>346</v>
+        <v>325</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="E12">
         <v>2009</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="J12" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="K12" t="s">
-        <v>351</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>383</v>
+        <v>330</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="M12" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5739,25 +5737,25 @@
         <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z12" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5768,14 +5766,11 @@
       <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AE12" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>302</v>
+      <c r="AF12" s="7">
+        <v>4.3</v>
       </c>
       <c r="AG12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH12" t="s">
         <v>120</v>
@@ -5783,20 +5778,20 @@
       <c r="AI12" t="s">
         <v>140</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK12" t="s">
         <v>134</v>
       </c>
-      <c r="AL12" t="s">
-        <v>353</v>
-      </c>
       <c r="AM12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO12" t="s">
-        <v>354</v>
+        <v>468</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>469</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5808,33 +5803,33 @@
         <v>175</v>
       </c>
       <c r="AT12" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="AU12" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="AV12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW12" t="s">
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E13">
         <v>2009</v>
@@ -5843,25 +5838,25 @@
         <v>246</v>
       </c>
       <c r="G13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" t="s">
         <v>347</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>348</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>349</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" t="s">
         <v>350</v>
-      </c>
-      <c r="K13" t="s">
-        <v>351</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="M13" t="s">
-        <v>352</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5894,7 +5889,7 @@
         <v>216</v>
       </c>
       <c r="Z13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5906,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="AE13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF13" t="s">
         <v>302</v>
@@ -5918,16 +5913,13 @@
         <v>120</v>
       </c>
       <c r="AI13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s">
         <v>134</v>
       </c>
       <c r="AL13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5936,78 +5928,81 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
       </c>
       <c r="AR13" t="s">
-        <v>171</v>
+        <v>239</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>175</v>
       </c>
       <c r="AT13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AU13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
       </c>
       <c r="AW13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>360</v>
+        <v>343</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E14">
         <v>2009</v>
       </c>
       <c r="F14" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="H14" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="I14" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="J14" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="K14" t="s">
-        <v>366</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>384</v>
+        <v>349</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="M14" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="N14" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="O14" t="s">
         <v>255</v>
       </c>
       <c r="P14" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
@@ -6016,25 +6011,22 @@
         <v>26</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="Z14" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6045,11 +6037,14 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AF14">
-        <v>4.3</v>
+      <c r="AE14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>302</v>
       </c>
       <c r="AG14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH14" t="s">
         <v>120</v>
@@ -6057,82 +6052,88 @@
       <c r="AI14" t="s">
         <v>133</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
+      </c>
       <c r="AK14" t="s">
         <v>134</v>
       </c>
+      <c r="AL14" t="s">
+        <v>351</v>
+      </c>
       <c r="AM14" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
       </c>
       <c r="AR14" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AT14" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="AU14" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AV14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW14" t="s">
         <v>207</v>
       </c>
       <c r="AX14" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="E15">
         <v>2009</v>
       </c>
       <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" t="s">
         <v>361</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>362</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>363</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>364</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="M15" t="s">
         <v>365</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>366</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="M15" t="s">
-        <v>367</v>
-      </c>
-      <c r="N15" t="s">
-        <v>368</v>
       </c>
       <c r="O15" t="s">
         <v>255</v>
@@ -6162,7 +6163,7 @@
         <v>113</v>
       </c>
       <c r="Y15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z15" t="s">
         <v>289</v>
@@ -6186,10 +6187,7 @@
         <v>120</v>
       </c>
       <c r="AI15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK15" t="s">
         <v>134</v>
@@ -6198,7 +6196,7 @@
         <v>233</v>
       </c>
       <c r="AO15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6213,7 +6211,7 @@
         <v>284</v>
       </c>
       <c r="AU15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AV15" t="s">
         <v>204</v>
@@ -6222,179 +6220,182 @@
         <v>207</v>
       </c>
       <c r="AX15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>375</v>
+        <v>357</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="E16">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H16" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="J16" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="K16" t="s">
-        <v>381</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>385</v>
+        <v>364</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="M16" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="N16" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="O16" t="s">
         <v>255</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X16" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>367</v>
       </c>
       <c r="Z16" t="s">
         <v>289</v>
       </c>
       <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AB16">
-        <v>3</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>302</v>
+      <c r="AF16">
+        <v>4.3</v>
       </c>
       <c r="AG16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI16" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>113</v>
       </c>
       <c r="AK16" t="s">
         <v>134</v>
       </c>
       <c r="AM16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AT16" t="s">
         <v>284</v>
       </c>
       <c r="AU16" t="s">
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="AV16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AW16" t="s">
         <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="E17">
         <v>2008</v>
       </c>
       <c r="F17" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" t="s">
         <v>376</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>377</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>378</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>379</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M17" t="s">
         <v>380</v>
-      </c>
-      <c r="K17" t="s">
-        <v>381</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M17" t="s">
-        <v>382</v>
       </c>
       <c r="N17" t="s">
         <v>254</v>
@@ -6445,10 +6446,10 @@
         <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s">
         <v>134</v>
@@ -6460,7 +6461,7 @@
         <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6484,48 +6485,48 @@
         <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="E18">
         <v>2008</v>
       </c>
       <c r="F18" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" t="s">
         <v>376</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>377</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>378</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>379</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M18" t="s">
         <v>380</v>
-      </c>
-      <c r="K18" t="s">
-        <v>381</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M18" t="s">
-        <v>382</v>
       </c>
       <c r="N18" t="s">
         <v>254</v>
@@ -6579,7 +6580,7 @@
         <v>220</v>
       </c>
       <c r="AI18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s">
         <v>134</v>
@@ -6591,7 +6592,7 @@
         <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6600,7 +6601,7 @@
         <v>170</v>
       </c>
       <c r="AS18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT18" t="s">
         <v>284</v>
@@ -6615,48 +6616,48 @@
         <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="E19">
         <v>2008</v>
       </c>
       <c r="F19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" t="s">
         <v>376</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>377</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>378</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>379</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" t="s">
         <v>380</v>
-      </c>
-      <c r="K19" t="s">
-        <v>381</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M19" t="s">
-        <v>382</v>
       </c>
       <c r="N19" t="s">
         <v>254</v>
@@ -6710,7 +6711,7 @@
         <v>220</v>
       </c>
       <c r="AI19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s">
         <v>134</v>
@@ -6722,7 +6723,7 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6731,7 +6732,7 @@
         <v>170</v>
       </c>
       <c r="AS19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT19" t="s">
         <v>284</v>
@@ -6746,48 +6747,48 @@
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>389</v>
+        <v>372</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="E20">
         <v>2008</v>
       </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H20" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="I20" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="K20" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>396</v>
+        <v>379</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>383</v>
       </c>
       <c r="M20" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="N20" t="s">
         <v>254</v>
@@ -6802,126 +6803,123 @@
         <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
         <v>46</v>
       </c>
-      <c r="U20" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" t="s">
-        <v>43</v>
-      </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>3</v>
-      </c>
-      <c r="AF20">
-        <v>4.3</v>
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>302</v>
       </c>
       <c r="AG20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AK20" t="s">
         <v>134</v>
       </c>
       <c r="AM20" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>160</v>
       </c>
       <c r="AO20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AS20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AT20" t="s">
-        <v>398</v>
+        <v>284</v>
       </c>
       <c r="AU20" t="s">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="AV20" t="s">
         <v>206</v>
       </c>
       <c r="AW20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX20" s="13" t="s">
-        <v>488</v>
+        <v>207</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E21">
         <v>2008</v>
       </c>
       <c r="F21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" t="s">
+        <v>389</v>
+      </c>
+      <c r="H21" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" t="s">
         <v>390</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>391</v>
       </c>
-      <c r="H21" t="s">
-        <v>331</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>392</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M21" t="s">
         <v>393</v>
-      </c>
-      <c r="K21" t="s">
-        <v>394</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M21" t="s">
-        <v>395</v>
       </c>
       <c r="N21" t="s">
         <v>254</v>
@@ -6954,10 +6952,10 @@
         <v>113</v>
       </c>
       <c r="Y21" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z21" t="s">
         <v>397</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>399</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6990,7 +6988,7 @@
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7002,60 +7000,60 @@
         <v>175</v>
       </c>
       <c r="AT21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AV21" t="s">
         <v>206</v>
       </c>
       <c r="AW21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX21" s="13" t="s">
-        <v>486</v>
+        <v>209</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" t="s">
+        <v>389</v>
+      </c>
+      <c r="H22" t="s">
+        <v>329</v>
+      </c>
+      <c r="I22" t="s">
         <v>390</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>391</v>
       </c>
-      <c r="H22" t="s">
-        <v>331</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>392</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M22" t="s">
         <v>393</v>
-      </c>
-      <c r="K22" t="s">
-        <v>394</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M22" t="s">
-        <v>395</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7088,10 +7086,10 @@
         <v>113</v>
       </c>
       <c r="Y22" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z22" t="s">
         <v>397</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>399</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7124,7 +7122,7 @@
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7136,60 +7134,60 @@
         <v>175</v>
       </c>
       <c r="AT22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AV22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW22" t="s">
         <v>210</v>
       </c>
-      <c r="AX22" s="13" t="s">
-        <v>487</v>
+      <c r="AX22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" t="s">
+        <v>389</v>
+      </c>
+      <c r="H23" t="s">
+        <v>329</v>
+      </c>
+      <c r="I23" t="s">
         <v>390</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>391</v>
       </c>
-      <c r="H23" t="s">
-        <v>331</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>392</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M23" t="s">
         <v>393</v>
-      </c>
-      <c r="K23" t="s">
-        <v>394</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M23" t="s">
-        <v>395</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7204,7 +7202,7 @@
         <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T23" t="s">
         <v>46</v>
@@ -7222,10 +7220,10 @@
         <v>113</v>
       </c>
       <c r="Y23" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z23" t="s">
         <v>397</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>399</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7258,7 +7256,7 @@
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7270,60 +7268,60 @@
         <v>175</v>
       </c>
       <c r="AT23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AV23" t="s">
         <v>205</v>
       </c>
       <c r="AW23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX23" s="13" t="s">
-        <v>491</v>
+        <v>210</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" t="s">
+        <v>389</v>
+      </c>
+      <c r="H24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" t="s">
         <v>390</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>391</v>
       </c>
-      <c r="H24" t="s">
-        <v>331</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>392</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M24" t="s">
         <v>393</v>
-      </c>
-      <c r="K24" t="s">
-        <v>394</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M24" t="s">
-        <v>395</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7356,10 +7354,10 @@
         <v>113</v>
       </c>
       <c r="Y24" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z24" t="s">
         <v>397</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>399</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7392,7 +7390,7 @@
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7404,10 +7402,10 @@
         <v>175</v>
       </c>
       <c r="AT24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AV24" t="s">
         <v>205</v>
@@ -7415,49 +7413,49 @@
       <c r="AW24" t="s">
         <v>209</v>
       </c>
-      <c r="AX24" s="13" t="s">
-        <v>490</v>
+      <c r="AX24" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>388</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" t="s">
         <v>390</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>391</v>
       </c>
-      <c r="H25" t="s">
-        <v>331</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>392</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M25" t="s">
         <v>393</v>
-      </c>
-      <c r="K25" t="s">
-        <v>394</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M25" t="s">
-        <v>395</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7490,10 +7488,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z25" t="s">
         <v>397</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>399</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7526,7 +7524,7 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7538,60 +7536,60 @@
         <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU25" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AV25" t="s">
         <v>205</v>
       </c>
       <c r="AW25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX25" s="13" t="s">
-        <v>492</v>
+        <v>209</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>402</v>
+        <v>386</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H26" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="J26" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="K26" t="s">
-        <v>407</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>409</v>
+        <v>392</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="M26" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7606,25 +7604,28 @@
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X26" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>395</v>
       </c>
       <c r="Z26" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7636,87 +7637,93 @@
         <v>3</v>
       </c>
       <c r="AF26">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI26" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>113</v>
       </c>
       <c r="AK26" t="s">
         <v>134</v>
       </c>
       <c r="AM26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
+      <c r="AR26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>175</v>
+      </c>
       <c r="AT26" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AU26" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="AV26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AW26" t="s">
         <v>208</v>
       </c>
       <c r="AX26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" t="s">
+        <v>402</v>
+      </c>
+      <c r="H27" t="s">
         <v>403</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" t="s">
         <v>404</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>405</v>
       </c>
-      <c r="I27" t="s">
-        <v>347</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="L27" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="M27" t="s">
         <v>406</v>
-      </c>
-      <c r="K27" t="s">
-        <v>407</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="M27" t="s">
-        <v>408</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7749,7 +7756,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7767,10 +7774,10 @@
         <v>111</v>
       </c>
       <c r="AH27" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AI27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK27" t="s">
         <v>134</v>
@@ -7782,16 +7789,16 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AT27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AU27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV27" t="s">
         <v>203</v>
@@ -7800,48 +7807,48 @@
         <v>208</v>
       </c>
       <c r="AX27" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>416</v>
+        <v>399</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="E28">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F28" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="G28" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="J28" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="K28" t="s">
-        <v>420</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>422</v>
+        <v>405</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="M28" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7856,132 +7863,123 @@
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s">
         <v>55</v>
       </c>
       <c r="X28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
         <v>3</v>
       </c>
-      <c r="AB28">
-        <v>3</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
       <c r="AF28">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH28" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="AI28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AK28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>424</v>
+        <v>134</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
       </c>
       <c r="AN28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
-      <c r="AR28" t="s">
-        <v>113</v>
-      </c>
       <c r="AT28" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="AU28" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="AV28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
       <c r="AX28" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>430</v>
+        <v>413</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="E29">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="I29" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="J29" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K29" t="s">
-        <v>434</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>437</v>
+        <v>418</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="M29" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>436</v>
+        <v>255</v>
       </c>
       <c r="P29" t="s">
         <v>252</v>
@@ -7990,138 +7988,141 @@
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
         <v>46</v>
       </c>
       <c r="U29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s">
         <v>55</v>
       </c>
-      <c r="V29" t="s">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s">
-        <v>51</v>
-      </c>
       <c r="X29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC29">
-        <v>3</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>302</v>
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>4.2</v>
       </c>
       <c r="AG29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH29" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>155</v>
       </c>
       <c r="AK29" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
       </c>
       <c r="AN29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO29" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
       </c>
       <c r="AR29" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="AT29" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="AU29" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AV29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AW29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX29" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>444</v>
+        <v>427</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="E30">
         <v>2006</v>
       </c>
       <c r="F30" t="s">
-        <v>445</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="H30" t="s">
         <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="J30" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="K30" t="s">
-        <v>449</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>452</v>
+        <v>432</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="M30" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="P30" t="s">
-        <v>451</v>
+        <v>252</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T30" t="s">
         <v>46</v>
@@ -8130,16 +8131,16 @@
         <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X30" t="s">
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8148,7 +8149,7 @@
         <v>2</v>
       </c>
       <c r="AC30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF30" t="s">
         <v>302</v>
@@ -8157,13 +8158,13 @@
         <v>111</v>
       </c>
       <c r="AH30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK30" t="s">
         <v>134</v>
       </c>
       <c r="AL30" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -8172,66 +8173,72 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
+      <c r="AR30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>175</v>
+      </c>
       <c r="AT30" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="AU30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AV30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW30" t="s">
         <v>210</v>
       </c>
       <c r="AX30" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="E31">
         <v>2006</v>
       </c>
       <c r="F31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H31" t="s">
         <v>248</v>
       </c>
       <c r="I31" t="s">
+        <v>445</v>
+      </c>
+      <c r="J31" t="s">
+        <v>446</v>
+      </c>
+      <c r="K31" t="s">
         <v>447</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="M31" t="s">
         <v>448</v>
-      </c>
-      <c r="K31" t="s">
-        <v>449</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="M31" t="s">
-        <v>450</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -8240,7 +8247,7 @@
         <v>255</v>
       </c>
       <c r="P31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -8264,7 +8271,7 @@
         <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8282,19 +8289,13 @@
         <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s">
         <v>134</v>
       </c>
       <c r="AL31" t="s">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -8303,66 +8304,66 @@
         <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AT31" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AU31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
       </c>
       <c r="AW31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F32" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G32" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="J32" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="K32" t="s">
-        <v>462</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>464</v>
+        <v>447</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="M32" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
@@ -8371,31 +8372,31 @@
         <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T32" t="s">
         <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W32" t="s">
         <v>55</v>
       </c>
       <c r="X32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8404,90 +8405,96 @@
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>3</v>
-      </c>
-      <c r="AF32">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>302</v>
       </c>
       <c r="AG32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH32" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>113</v>
       </c>
       <c r="AK32" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL32" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
-      <c r="AR32" t="s">
-        <v>239</v>
-      </c>
       <c r="AT32" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AU32" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AV32" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AW32" t="s">
         <v>207</v>
       </c>
       <c r="AX32" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="E33">
         <v>2005</v>
       </c>
       <c r="F33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H33" t="s">
         <v>252</v>
       </c>
       <c r="I33" t="s">
+        <v>458</v>
+      </c>
+      <c r="J33" t="s">
+        <v>459</v>
+      </c>
+      <c r="K33" t="s">
         <v>460</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="M33" t="s">
         <v>461</v>
-      </c>
-      <c r="K33" t="s">
-        <v>462</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="M33" t="s">
-        <v>463</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8517,10 +8524,10 @@
         <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8544,13 +8551,13 @@
         <v>150</v>
       </c>
       <c r="AL33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AM33" t="s">
         <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8559,10 +8566,10 @@
         <v>239</v>
       </c>
       <c r="AT33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AU33" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AV33" t="s">
         <v>212</v>
@@ -8571,20 +8578,133 @@
         <v>207</v>
       </c>
       <c r="AX33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX34" s="13"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX35" s="13"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX36" s="13"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX37" s="13"/>
+      <c r="A34" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34">
+        <v>2005</v>
+      </c>
+      <c r="F34" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" t="s">
+        <v>457</v>
+      </c>
+      <c r="H34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I34" t="s">
+        <v>458</v>
+      </c>
+      <c r="J34" t="s">
+        <v>459</v>
+      </c>
+      <c r="K34" t="s">
+        <v>460</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="M34" t="s">
+        <v>461</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>470</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>466</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>467</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8597,7 +8717,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P1048576 Q3:Q7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q7 P8:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -8609,40 +8729,41 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="L7" r:id="rId25" xr:uid="{FC74C81E-A44B-4959-9032-02B3A291695A}"/>
-    <hyperlink ref="L30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L20" r:id="rId27" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
-    <hyperlink ref="L21" r:id="rId28" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
-    <hyperlink ref="L24" r:id="rId29" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
-    <hyperlink ref="L23" r:id="rId30" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
+    <hyperlink ref="L31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L21" r:id="rId27" xr:uid="{9B9D7285-824A-4DE5-9A65-2A3AAC1717A8}"/>
+    <hyperlink ref="L22" r:id="rId28" xr:uid="{3E5BA907-1A5D-4664-9699-1153BE64A852}"/>
+    <hyperlink ref="L25" r:id="rId29" xr:uid="{75F68BE8-47F0-4128-9225-E5A8FCA071D1}"/>
+    <hyperlink ref="L24" r:id="rId30" xr:uid="{CAA28176-0222-4C0E-84F5-B246969DA2FF}"/>
+    <hyperlink ref="L10" r:id="rId31" xr:uid="{8A6803A2-9993-42C7-9332-2BC50F75B429}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
@@ -8744,7 +8865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
@@ -8761,70 +8882,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9146,7 +9267,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -9534,7 +9655,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9737,7 +9858,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -9757,7 +9878,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -9770,9 +9891,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -9786,7 +9906,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -9794,10 +9914,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -9857,51 +9977,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="14" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -10424,7 +10544,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -10736,6 +10856,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -10849,31 +10978,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B8F609-7B50-45AD-A493-34F28D6B4804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10887,12 +11015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1051602-0E16-4E3B-B147-AB637DB3EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FA089-B7A7-47D9-ADAA-25492E3AB4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4321,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX35" sqref="AX35"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AV35" sqref="AV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7140,7 +7140,7 @@
         <v>481</v>
       </c>
       <c r="AV22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW22" t="s">
         <v>210</v>
@@ -7408,7 +7408,7 @@
         <v>480</v>
       </c>
       <c r="AV24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW24" t="s">
         <v>209</v>
@@ -7542,7 +7542,7 @@
         <v>481</v>
       </c>
       <c r="AV25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW25" t="s">
         <v>209</v>
@@ -10850,18 +10850,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10979,24 +10979,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Carbonara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FA089-B7A7-47D9-ADAA-25492E3AB4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DE357D-AB38-4FF7-8833-26655AC0ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="497">
   <si>
     <t>SearchID</t>
   </si>
@@ -3159,15 +3159,6 @@
     <t>This article explores the legal regime of the protection of marine species and habitats within European waters by taking the protection of harbour porpoises in the German territorial sea and exclusive economic zone as an example. The analysis is based on a scientific assessment of the occurrence of and the anthropogenic impacts on harbour porpoises in the North Sea. The relationship between the protection of marine species within the European Union (EU) on the one hand and the Common Fisheries Policy of the EU on the other constitutes a classic example of a user-environment conflict. The article explores how such conflicts ought to be solved under the pertinent legal rules. © 2011 Martinus Nijhoff Publishers.</t>
   </si>
   <si>
-    <t>Phocoena phocoena</t>
-  </si>
-  <si>
-    <t>mapping</t>
-  </si>
-  <si>
-    <t>The study is very qualitative and amy quantitative analysis was carried out</t>
-  </si>
-  <si>
     <t>SW4_1170</t>
   </si>
   <si>
@@ -3202,9 +3193,6 @@
   </si>
   <si>
     <t>Anchovy _ Sardine</t>
-  </si>
-  <si>
-    <t>Distribution</t>
   </si>
   <si>
     <t>fishing interaction</t>
@@ -4321,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AV35" sqref="AV35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4594,7 +4582,7 @@
         <v>251</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -4728,7 +4716,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M4" t="s">
         <v>253</v>
@@ -4859,7 +4847,7 @@
         <v>269</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M5" t="s">
         <v>270</v>
@@ -4876,130 +4864,52 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
+      <c r="R5" t="s">
+        <v>84</v>
       </c>
       <c r="AF5" t="s">
         <v>257</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6">
         <v>2010</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
         <v>266</v>
       </c>
       <c r="H6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" t="s">
         <v>278</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" t="s">
         <v>279</v>
-      </c>
-      <c r="J6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" t="s">
-        <v>281</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="M6" t="s">
-        <v>282</v>
       </c>
       <c r="N6" t="s">
         <v>254</v>
@@ -5032,10 +4942,10 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -5065,7 +4975,7 @@
         <v>150</v>
       </c>
       <c r="AL6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AM6" t="s">
         <v>232</v>
@@ -5074,7 +4984,7 @@
         <v>162</v>
       </c>
       <c r="AO6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -5086,10 +4996,10 @@
         <v>177</v>
       </c>
       <c r="AT6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AU6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
@@ -5098,48 +5008,48 @@
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E7">
         <v>2010</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
         <v>266</v>
       </c>
       <c r="H7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" t="s">
         <v>278</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" t="s">
         <v>279</v>
-      </c>
-      <c r="J7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="M7" t="s">
-        <v>282</v>
       </c>
       <c r="N7" t="s">
         <v>254</v>
@@ -5172,7 +5082,7 @@
         <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -5199,7 +5109,7 @@
         <v>150</v>
       </c>
       <c r="AL7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -5208,7 +5118,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -5220,10 +5130,10 @@
         <v>177</v>
       </c>
       <c r="AT7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AU7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AV7" t="s">
         <v>237</v>
@@ -5232,48 +5142,48 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E8">
         <v>2010</v>
       </c>
       <c r="F8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" t="s">
         <v>294</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>295</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" t="s">
         <v>296</v>
-      </c>
-      <c r="I8" t="s">
-        <v>297</v>
-      </c>
-      <c r="J8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="M8" t="s">
-        <v>300</v>
       </c>
       <c r="N8" t="s">
         <v>254</v>
@@ -5282,7 +5192,7 @@
         <v>255</v>
       </c>
       <c r="P8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
@@ -5306,7 +5216,7 @@
         <v>218</v>
       </c>
       <c r="Z8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -5330,13 +5240,13 @@
         <v>150</v>
       </c>
       <c r="AL8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM8" t="s">
         <v>159</v>
       </c>
       <c r="AO8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5348,10 +5258,10 @@
         <v>175</v>
       </c>
       <c r="AT8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AV8" t="s">
         <v>212</v>
@@ -5360,48 +5270,48 @@
         <v>207</v>
       </c>
       <c r="AX8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E9">
         <v>2009</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
         <v>248</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K9" t="s">
         <v>252</v>
       </c>
       <c r="L9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N9" t="s">
         <v>254</v>
@@ -5419,21 +5329,21 @@
         <v>84</v>
       </c>
       <c r="AF9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E10">
         <v>2009</v>
@@ -5442,25 +5352,25 @@
         <v>246</v>
       </c>
       <c r="G10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" t="s">
         <v>318</v>
-      </c>
-      <c r="H10" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" t="s">
-        <v>319</v>
-      </c>
-      <c r="J10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K10" t="s">
-        <v>321</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="M10" t="s">
-        <v>322</v>
       </c>
       <c r="N10" t="s">
         <v>254</v>
@@ -5493,7 +5403,7 @@
         <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5505,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG10" t="s">
         <v>109</v>
@@ -5526,7 +5436,7 @@
         <v>160</v>
       </c>
       <c r="AO10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AQ10" t="s">
         <v>165</v>
@@ -5538,10 +5448,10 @@
         <v>196</v>
       </c>
       <c r="AT10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AV10" t="s">
         <v>200</v>
@@ -5550,21 +5460,21 @@
         <v>207</v>
       </c>
       <c r="AX10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11">
         <v>2009</v>
@@ -5573,25 +5483,25 @@
         <v>246</v>
       </c>
       <c r="G11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11" t="s">
         <v>318</v>
-      </c>
-      <c r="H11" t="s">
-        <v>296</v>
-      </c>
-      <c r="I11" t="s">
-        <v>319</v>
-      </c>
-      <c r="J11" t="s">
-        <v>320</v>
-      </c>
-      <c r="K11" t="s">
-        <v>321</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="M11" t="s">
-        <v>322</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -5624,7 +5534,7 @@
         <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5636,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG11" t="s">
         <v>109</v>
@@ -5657,7 +5567,7 @@
         <v>160</v>
       </c>
       <c r="AO11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AQ11" t="s">
         <v>165</v>
@@ -5669,10 +5579,10 @@
         <v>196</v>
       </c>
       <c r="AT11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AV11" t="s">
         <v>113</v>
@@ -5681,30 +5591,30 @@
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E12">
         <v>2009</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
         <v>248</v>
@@ -5713,16 +5623,16 @@
         <v>248</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
@@ -5755,7 +5665,7 @@
         <v>215</v>
       </c>
       <c r="Z12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5788,10 +5698,10 @@
         <v>233</v>
       </c>
       <c r="AO12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AP12" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -5803,10 +5713,10 @@
         <v>175</v>
       </c>
       <c r="AT12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AV12" t="s">
         <v>206</v>
@@ -5815,21 +5725,21 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E13">
         <v>2009</v>
@@ -5838,25 +5748,25 @@
         <v>246</v>
       </c>
       <c r="G13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I13" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" t="s">
+        <v>344</v>
+      </c>
+      <c r="K13" t="s">
         <v>345</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="M13" t="s">
         <v>346</v>
-      </c>
-      <c r="I13" t="s">
-        <v>347</v>
-      </c>
-      <c r="J13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K13" t="s">
-        <v>349</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="M13" t="s">
-        <v>350</v>
       </c>
       <c r="N13" t="s">
         <v>254</v>
@@ -5889,7 +5799,7 @@
         <v>216</v>
       </c>
       <c r="Z13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5901,10 +5811,10 @@
         <v>3</v>
       </c>
       <c r="AE13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG13" t="s">
         <v>109</v>
@@ -5919,7 +5829,7 @@
         <v>134</v>
       </c>
       <c r="AL13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -5928,7 +5838,7 @@
         <v>160</v>
       </c>
       <c r="AO13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
@@ -5940,10 +5850,10 @@
         <v>175</v>
       </c>
       <c r="AT13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU13" t="s">
         <v>351</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>355</v>
       </c>
       <c r="AV13" t="s">
         <v>199</v>
@@ -5952,21 +5862,21 @@
         <v>208</v>
       </c>
       <c r="AX13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E14">
         <v>2009</v>
@@ -5975,25 +5885,25 @@
         <v>246</v>
       </c>
       <c r="G14" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" t="s">
+        <v>342</v>
+      </c>
+      <c r="I14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" t="s">
+        <v>344</v>
+      </c>
+      <c r="K14" t="s">
         <v>345</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="M14" t="s">
         <v>346</v>
-      </c>
-      <c r="I14" t="s">
-        <v>347</v>
-      </c>
-      <c r="J14" t="s">
-        <v>348</v>
-      </c>
-      <c r="K14" t="s">
-        <v>349</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" t="s">
-        <v>350</v>
       </c>
       <c r="N14" t="s">
         <v>254</v>
@@ -6026,7 +5936,7 @@
         <v>216</v>
       </c>
       <c r="Z14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6038,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="AE14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG14" t="s">
         <v>109</v>
@@ -6059,7 +5969,7 @@
         <v>134</v>
       </c>
       <c r="AL14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -6068,7 +5978,7 @@
         <v>160</v>
       </c>
       <c r="AO14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -6077,10 +5987,10 @@
         <v>171</v>
       </c>
       <c r="AT14" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU14" t="s">
         <v>351</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>355</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -6089,57 +5999,57 @@
         <v>207</v>
       </c>
       <c r="AX14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E15">
         <v>2009</v>
       </c>
       <c r="F15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" t="s">
         <v>359</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K15" t="s">
         <v>360</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="M15" t="s">
         <v>361</v>
       </c>
-      <c r="I15" t="s">
+      <c r="N15" t="s">
         <v>362</v>
-      </c>
-      <c r="J15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K15" t="s">
-        <v>364</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="M15" t="s">
-        <v>365</v>
-      </c>
-      <c r="N15" t="s">
-        <v>366</v>
       </c>
       <c r="O15" t="s">
         <v>255</v>
       </c>
       <c r="P15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
@@ -6163,10 +6073,10 @@
         <v>113</v>
       </c>
       <c r="Y15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6196,7 +6106,7 @@
         <v>233</v>
       </c>
       <c r="AO15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6208,10 +6118,10 @@
         <v>175</v>
       </c>
       <c r="AT15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AV15" t="s">
         <v>204</v>
@@ -6220,57 +6130,57 @@
         <v>207</v>
       </c>
       <c r="AX15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E16">
         <v>2009</v>
       </c>
       <c r="F16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" t="s">
         <v>359</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>360</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="M16" t="s">
         <v>361</v>
       </c>
-      <c r="I16" t="s">
+      <c r="N16" t="s">
         <v>362</v>
-      </c>
-      <c r="J16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K16" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="M16" t="s">
-        <v>365</v>
-      </c>
-      <c r="N16" t="s">
-        <v>366</v>
       </c>
       <c r="O16" t="s">
         <v>255</v>
       </c>
       <c r="P16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
@@ -6294,10 +6204,10 @@
         <v>113</v>
       </c>
       <c r="Y16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z16" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6330,7 +6240,7 @@
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6342,10 +6252,10 @@
         <v>175</v>
       </c>
       <c r="AT16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AV16" t="s">
         <v>204</v>
@@ -6354,48 +6264,48 @@
         <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E17">
         <v>2008</v>
       </c>
       <c r="F17" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J17" t="s">
         <v>374</v>
       </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
         <v>375</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M17" t="s">
         <v>376</v>
-      </c>
-      <c r="I17" t="s">
-        <v>377</v>
-      </c>
-      <c r="J17" t="s">
-        <v>378</v>
-      </c>
-      <c r="K17" t="s">
-        <v>379</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="M17" t="s">
-        <v>380</v>
       </c>
       <c r="N17" t="s">
         <v>254</v>
@@ -6428,7 +6338,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA17">
         <v>3</v>
@@ -6440,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG17" t="s">
         <v>109</v>
@@ -6461,7 +6371,7 @@
         <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6473,7 +6383,7 @@
         <v>189</v>
       </c>
       <c r="AT17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU17" t="s">
         <v>260</v>
@@ -6485,48 +6395,48 @@
         <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>2008</v>
       </c>
       <c r="F18" t="s">
+        <v>370</v>
+      </c>
+      <c r="G18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" t="s">
         <v>374</v>
       </c>
-      <c r="G18" t="s">
+      <c r="K18" t="s">
         <v>375</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M18" t="s">
         <v>376</v>
-      </c>
-      <c r="I18" t="s">
-        <v>377</v>
-      </c>
-      <c r="J18" t="s">
-        <v>378</v>
-      </c>
-      <c r="K18" t="s">
-        <v>379</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="M18" t="s">
-        <v>380</v>
       </c>
       <c r="N18" t="s">
         <v>254</v>
@@ -6559,7 +6469,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA18">
         <v>3</v>
@@ -6571,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG18" t="s">
         <v>109</v>
@@ -6592,7 +6502,7 @@
         <v>160</v>
       </c>
       <c r="AO18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6604,7 +6514,7 @@
         <v>189</v>
       </c>
       <c r="AT18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU18" t="s">
         <v>260</v>
@@ -6616,48 +6526,48 @@
         <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E19">
         <v>2008</v>
       </c>
       <c r="F19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" t="s">
+        <v>371</v>
+      </c>
+      <c r="H19" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J19" t="s">
         <v>374</v>
       </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
         <v>375</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M19" t="s">
         <v>376</v>
-      </c>
-      <c r="I19" t="s">
-        <v>377</v>
-      </c>
-      <c r="J19" t="s">
-        <v>378</v>
-      </c>
-      <c r="K19" t="s">
-        <v>379</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" t="s">
-        <v>380</v>
       </c>
       <c r="N19" t="s">
         <v>254</v>
@@ -6690,7 +6600,7 @@
         <v>216</v>
       </c>
       <c r="Z19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA19">
         <v>3</v>
@@ -6702,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG19" t="s">
         <v>109</v>
@@ -6723,7 +6633,7 @@
         <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6735,7 +6645,7 @@
         <v>188</v>
       </c>
       <c r="AT19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU19" t="s">
         <v>260</v>
@@ -6747,48 +6657,48 @@
         <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E20">
         <v>2008</v>
       </c>
       <c r="F20" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J20" t="s">
         <v>374</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K20" t="s">
         <v>375</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M20" t="s">
         <v>376</v>
-      </c>
-      <c r="I20" t="s">
-        <v>377</v>
-      </c>
-      <c r="J20" t="s">
-        <v>378</v>
-      </c>
-      <c r="K20" t="s">
-        <v>379</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="M20" t="s">
-        <v>380</v>
       </c>
       <c r="N20" t="s">
         <v>254</v>
@@ -6821,7 +6731,7 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA20">
         <v>3</v>
@@ -6833,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG20" t="s">
         <v>109</v>
@@ -6854,7 +6764,7 @@
         <v>160</v>
       </c>
       <c r="AO20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -6866,7 +6776,7 @@
         <v>189</v>
       </c>
       <c r="AT20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AU20" t="s">
         <v>260</v>
@@ -6878,48 +6788,48 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E21">
         <v>2008</v>
       </c>
       <c r="F21" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" t="s">
+        <v>386</v>
+      </c>
+      <c r="J21" t="s">
+        <v>387</v>
+      </c>
+      <c r="K21" t="s">
         <v>388</v>
       </c>
-      <c r="G21" t="s">
+      <c r="L21" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M21" t="s">
         <v>389</v>
-      </c>
-      <c r="H21" t="s">
-        <v>329</v>
-      </c>
-      <c r="I21" t="s">
-        <v>390</v>
-      </c>
-      <c r="J21" t="s">
-        <v>391</v>
-      </c>
-      <c r="K21" t="s">
-        <v>392</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M21" t="s">
-        <v>393</v>
       </c>
       <c r="N21" t="s">
         <v>254</v>
@@ -6952,10 +6862,10 @@
         <v>113</v>
       </c>
       <c r="Y21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6988,7 +6898,7 @@
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7000,10 +6910,10 @@
         <v>175</v>
       </c>
       <c r="AT21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AV21" t="s">
         <v>206</v>
@@ -7012,48 +6922,48 @@
         <v>209</v>
       </c>
       <c r="AX21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E22">
         <v>2008</v>
       </c>
       <c r="F22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" t="s">
+        <v>387</v>
+      </c>
+      <c r="K22" t="s">
         <v>388</v>
       </c>
-      <c r="G22" t="s">
+      <c r="L22" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" t="s">
         <v>389</v>
-      </c>
-      <c r="H22" t="s">
-        <v>329</v>
-      </c>
-      <c r="I22" t="s">
-        <v>390</v>
-      </c>
-      <c r="J22" t="s">
-        <v>391</v>
-      </c>
-      <c r="K22" t="s">
-        <v>392</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M22" t="s">
-        <v>393</v>
       </c>
       <c r="N22" t="s">
         <v>254</v>
@@ -7086,10 +6996,10 @@
         <v>113</v>
       </c>
       <c r="Y22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7122,7 +7032,7 @@
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7134,10 +7044,10 @@
         <v>175</v>
       </c>
       <c r="AT22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV22" t="s">
         <v>199</v>
@@ -7146,48 +7056,48 @@
         <v>210</v>
       </c>
       <c r="AX22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E23">
         <v>2008</v>
       </c>
       <c r="F23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I23" t="s">
+        <v>386</v>
+      </c>
+      <c r="J23" t="s">
+        <v>387</v>
+      </c>
+      <c r="K23" t="s">
         <v>388</v>
       </c>
-      <c r="G23" t="s">
+      <c r="L23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M23" t="s">
         <v>389</v>
-      </c>
-      <c r="H23" t="s">
-        <v>329</v>
-      </c>
-      <c r="I23" t="s">
-        <v>390</v>
-      </c>
-      <c r="J23" t="s">
-        <v>391</v>
-      </c>
-      <c r="K23" t="s">
-        <v>392</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" t="s">
-        <v>393</v>
       </c>
       <c r="N23" t="s">
         <v>254</v>
@@ -7220,10 +7130,10 @@
         <v>113</v>
       </c>
       <c r="Y23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7256,7 +7166,7 @@
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ23" t="s">
         <v>164</v>
@@ -7268,10 +7178,10 @@
         <v>175</v>
       </c>
       <c r="AT23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AV23" t="s">
         <v>205</v>
@@ -7280,48 +7190,48 @@
         <v>210</v>
       </c>
       <c r="AX23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E24">
         <v>2008</v>
       </c>
       <c r="F24" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" t="s">
+        <v>386</v>
+      </c>
+      <c r="J24" t="s">
+        <v>387</v>
+      </c>
+      <c r="K24" t="s">
         <v>388</v>
       </c>
-      <c r="G24" t="s">
+      <c r="L24" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" t="s">
         <v>389</v>
-      </c>
-      <c r="H24" t="s">
-        <v>329</v>
-      </c>
-      <c r="I24" t="s">
-        <v>390</v>
-      </c>
-      <c r="J24" t="s">
-        <v>391</v>
-      </c>
-      <c r="K24" t="s">
-        <v>392</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M24" t="s">
-        <v>393</v>
       </c>
       <c r="N24" t="s">
         <v>254</v>
@@ -7354,10 +7264,10 @@
         <v>113</v>
       </c>
       <c r="Y24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7390,7 +7300,7 @@
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
@@ -7402,10 +7312,10 @@
         <v>175</v>
       </c>
       <c r="AT24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU24" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AV24" t="s">
         <v>206</v>
@@ -7414,48 +7324,48 @@
         <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E25">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" t="s">
+        <v>385</v>
+      </c>
+      <c r="H25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" t="s">
+        <v>386</v>
+      </c>
+      <c r="J25" t="s">
+        <v>387</v>
+      </c>
+      <c r="K25" t="s">
         <v>388</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L25" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M25" t="s">
         <v>389</v>
-      </c>
-      <c r="H25" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" t="s">
-        <v>390</v>
-      </c>
-      <c r="J25" t="s">
-        <v>391</v>
-      </c>
-      <c r="K25" t="s">
-        <v>392</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M25" t="s">
-        <v>393</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
@@ -7488,10 +7398,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7524,7 +7434,7 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7536,10 +7446,10 @@
         <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU25" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AV25" t="s">
         <v>199</v>
@@ -7548,48 +7458,48 @@
         <v>209</v>
       </c>
       <c r="AX25" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E26">
         <v>2008</v>
       </c>
       <c r="F26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I26" t="s">
+        <v>386</v>
+      </c>
+      <c r="J26" t="s">
+        <v>387</v>
+      </c>
+      <c r="K26" t="s">
         <v>388</v>
       </c>
-      <c r="G26" t="s">
+      <c r="L26" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" t="s">
         <v>389</v>
-      </c>
-      <c r="H26" t="s">
-        <v>329</v>
-      </c>
-      <c r="I26" t="s">
-        <v>390</v>
-      </c>
-      <c r="J26" t="s">
-        <v>391</v>
-      </c>
-      <c r="K26" t="s">
-        <v>392</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="M26" t="s">
-        <v>393</v>
       </c>
       <c r="N26" t="s">
         <v>254</v>
@@ -7622,10 +7532,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Z26" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7658,7 +7568,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7670,10 +7580,10 @@
         <v>175</v>
       </c>
       <c r="AT26" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AU26" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AV26" t="s">
         <v>205</v>
@@ -7682,48 +7592,48 @@
         <v>208</v>
       </c>
       <c r="AX26" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E27">
         <v>2008</v>
       </c>
       <c r="F27" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" t="s">
+        <v>398</v>
+      </c>
+      <c r="H27" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27" t="s">
+        <v>341</v>
+      </c>
+      <c r="J27" t="s">
+        <v>400</v>
+      </c>
+      <c r="K27" t="s">
         <v>401</v>
       </c>
-      <c r="G27" t="s">
+      <c r="L27" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M27" t="s">
         <v>402</v>
-      </c>
-      <c r="H27" t="s">
-        <v>403</v>
-      </c>
-      <c r="I27" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" t="s">
-        <v>404</v>
-      </c>
-      <c r="K27" t="s">
-        <v>405</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="M27" t="s">
-        <v>406</v>
       </c>
       <c r="N27" t="s">
         <v>254</v>
@@ -7756,7 +7666,7 @@
         <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7789,16 +7699,16 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AT27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AU27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AV27" t="s">
         <v>203</v>
@@ -7807,48 +7717,48 @@
         <v>208</v>
       </c>
       <c r="AX27" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E28">
         <v>2008</v>
       </c>
       <c r="F28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H28" t="s">
+        <v>399</v>
+      </c>
+      <c r="I28" t="s">
+        <v>341</v>
+      </c>
+      <c r="J28" t="s">
+        <v>400</v>
+      </c>
+      <c r="K28" t="s">
         <v>401</v>
       </c>
-      <c r="G28" t="s">
+      <c r="L28" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="M28" t="s">
         <v>402</v>
-      </c>
-      <c r="H28" t="s">
-        <v>403</v>
-      </c>
-      <c r="I28" t="s">
-        <v>345</v>
-      </c>
-      <c r="J28" t="s">
-        <v>404</v>
-      </c>
-      <c r="K28" t="s">
-        <v>405</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="M28" t="s">
-        <v>406</v>
       </c>
       <c r="N28" t="s">
         <v>254</v>
@@ -7881,7 +7791,7 @@
         <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7914,16 +7824,16 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AT28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AU28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AV28" t="s">
         <v>203</v>
@@ -7932,48 +7842,48 @@
         <v>208</v>
       </c>
       <c r="AX28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E29">
         <v>2007</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H29" t="s">
         <v>267</v>
       </c>
       <c r="I29" t="s">
+        <v>412</v>
+      </c>
+      <c r="J29" t="s">
+        <v>413</v>
+      </c>
+      <c r="K29" t="s">
+        <v>414</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="J29" t="s">
-        <v>417</v>
-      </c>
-      <c r="K29" t="s">
-        <v>418</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>420</v>
-      </c>
       <c r="M29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N29" t="s">
         <v>254</v>
@@ -8006,7 +7916,7 @@
         <v>72</v>
       </c>
       <c r="Z29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AA29">
         <v>3</v>
@@ -8036,7 +7946,7 @@
         <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -8045,7 +7955,7 @@
         <v>162</v>
       </c>
       <c r="AO29" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8054,10 +7964,10 @@
         <v>113</v>
       </c>
       <c r="AT29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AU29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -8066,21 +7976,21 @@
         <v>208</v>
       </c>
       <c r="AX29" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E30">
         <v>2006</v>
@@ -8089,31 +7999,31 @@
         <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H30" t="s">
         <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J30" t="s">
+        <v>427</v>
+      </c>
+      <c r="K30" t="s">
+        <v>428</v>
+      </c>
+      <c r="L30" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="K30" t="s">
-        <v>432</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="M30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N30" t="s">
         <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P30" t="s">
         <v>252</v>
@@ -8140,7 +8050,7 @@
         <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8152,7 +8062,7 @@
         <v>3</v>
       </c>
       <c r="AF30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s">
         <v>111</v>
@@ -8164,7 +8074,7 @@
         <v>134</v>
       </c>
       <c r="AL30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AM30" t="s">
         <v>232</v>
@@ -8173,7 +8083,7 @@
         <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8185,10 +8095,10 @@
         <v>175</v>
       </c>
       <c r="AT30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AU30" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AV30" t="s">
         <v>201</v>
@@ -8197,48 +8107,48 @@
         <v>210</v>
       </c>
       <c r="AX30" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E31">
         <v>2006</v>
       </c>
       <c r="F31" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H31" t="s">
         <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J31" t="s">
+        <v>442</v>
+      </c>
+      <c r="K31" t="s">
+        <v>443</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="K31" t="s">
-        <v>447</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="M31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N31" t="s">
         <v>254</v>
@@ -8247,7 +8157,7 @@
         <v>255</v>
       </c>
       <c r="P31" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -8271,7 +8181,7 @@
         <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8283,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="AF31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s">
         <v>111</v>
@@ -8295,7 +8205,7 @@
         <v>134</v>
       </c>
       <c r="AL31" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AM31" t="s">
         <v>232</v>
@@ -8304,16 +8214,16 @@
         <v>160</v>
       </c>
       <c r="AO31" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AT31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AU31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
@@ -8322,48 +8232,48 @@
         <v>210</v>
       </c>
       <c r="AX31" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E32">
         <v>2006</v>
       </c>
       <c r="F32" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G32" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H32" t="s">
         <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J32" t="s">
+        <v>442</v>
+      </c>
+      <c r="K32" t="s">
+        <v>443</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="K32" t="s">
-        <v>447</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="M32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N32" t="s">
         <v>254</v>
@@ -8372,7 +8282,7 @@
         <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
@@ -8396,7 +8306,7 @@
         <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8408,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="AF32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s">
         <v>111</v>
@@ -8426,7 +8336,7 @@
         <v>134</v>
       </c>
       <c r="AL32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -8435,16 +8345,16 @@
         <v>160</v>
       </c>
       <c r="AO32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AT32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AU32" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AV32" t="s">
         <v>199</v>
@@ -8453,48 +8363,48 @@
         <v>207</v>
       </c>
       <c r="AX32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E33">
         <v>2005</v>
       </c>
       <c r="F33" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G33" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H33" t="s">
         <v>252</v>
       </c>
       <c r="I33" t="s">
+        <v>454</v>
+      </c>
+      <c r="J33" t="s">
+        <v>455</v>
+      </c>
+      <c r="K33" t="s">
+        <v>456</v>
+      </c>
+      <c r="L33" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="J33" t="s">
-        <v>459</v>
-      </c>
-      <c r="K33" t="s">
-        <v>460</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>462</v>
-      </c>
       <c r="M33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N33" t="s">
         <v>254</v>
@@ -8527,7 +8437,7 @@
         <v>72</v>
       </c>
       <c r="Z33" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8551,13 +8461,13 @@
         <v>150</v>
       </c>
       <c r="AL33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AM33" t="s">
         <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8566,10 +8476,10 @@
         <v>239</v>
       </c>
       <c r="AT33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AU33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AV33" t="s">
         <v>212</v>
@@ -8578,48 +8488,48 @@
         <v>207</v>
       </c>
       <c r="AX33" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E34">
         <v>2005</v>
       </c>
       <c r="F34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G34" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H34" t="s">
         <v>252</v>
       </c>
       <c r="I34" t="s">
+        <v>454</v>
+      </c>
+      <c r="J34" t="s">
+        <v>455</v>
+      </c>
+      <c r="K34" t="s">
+        <v>456</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="J34" t="s">
-        <v>459</v>
-      </c>
-      <c r="K34" t="s">
-        <v>460</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>462</v>
-      </c>
       <c r="M34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N34" t="s">
         <v>254</v>
@@ -8652,7 +8562,7 @@
         <v>75</v>
       </c>
       <c r="Z34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8676,13 +8586,13 @@
         <v>150</v>
       </c>
       <c r="AL34" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AM34" t="s">
         <v>159</v>
       </c>
       <c r="AO34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8691,10 +8601,10 @@
         <v>239</v>
       </c>
       <c r="AT34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AU34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AV34" t="s">
         <v>212</v>
@@ -8703,7 +8613,7 @@
         <v>207</v>
       </c>
       <c r="AX34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10859,12 +10769,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -10978,6 +10882,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -10987,21 +10897,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B8F609-7B50-45AD-A493-34F28D6B4804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11015,4 +10910,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>